--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage-injection.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3430" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3164" uniqueCount="495">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T10:55:00+00:00</t>
+    <t>2022-09-07T11:02:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -588,622 +588,479 @@
     <t>IVL(TS) used in a QSI</t>
   </si>
   <si>
-    <t>boundsDuration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duration
+    <t>boundsRange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Range {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRange}
 </t>
   </si>
   <si>
-    <t>Length/Range of lengths, or (Start and/or end) limits</t>
-  </si>
-  <si>
-    <t>Either a duration for the length of the timing schedule, a range of possible length, or outer bounds for start and/or end limits of the timing schedule.</t>
-  </si>
-  <si>
-    <t>Dosage.timing.repeat.bounds[x].id</t>
-  </si>
-  <si>
-    <t>Dosage.timing.repeat.bounds[x].extension</t>
-  </si>
-  <si>
-    <t>Dosage.timing.repeat.bounds[x].value</t>
+    <t>Set of values bounded by low and high</t>
+  </si>
+  <si>
+    <t>A set of ordered Quantities defined by a low and high limit.</t>
+  </si>
+  <si>
+    <t>The stated low and high value are assumed to have arbitrarily high precision when it comes to determining which values are in the range. I.e. 1.99 is not in the range 2 -&gt; 3.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+rng-2:If present, low SHALL have a lower value than high {low.empty() or high.empty() or (low &lt;= high)}</t>
+  </si>
+  <si>
+    <t>IVL&lt;QTY[not(type="TS")]&gt; [lowClosed="true" and highClosed="true"]or URG&lt;QTY[not(type="TS")]&gt;</t>
+  </si>
+  <si>
+    <t>NR and also possibly SN (but see also quantity)</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positiveInt
+</t>
+  </si>
+  <si>
+    <t>繰り返し服用もしくは注射回数</t>
+  </si>
+  <si>
+    <t>Timing仕様の全てにおいて、特定の期間に繰り返されるように指定された総回数。もし、countMaxが設定されていれば、このエレメントは許容される最低限度の回数を示す。</t>
+  </si>
+  <si>
+    <t>回数に上限、下限の範囲がある場合は、このcountで示される回数が起きるまでは、エレメントは範囲の中にあると解釈されるべきである。</t>
+  </si>
+  <si>
+    <t>Repetitions may be limited by end time or total occurrences.</t>
+  </si>
+  <si>
+    <t>Timing.repeat.count</t>
+  </si>
+  <si>
+    <t>PIVL.count</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.countMax</t>
+  </si>
+  <si>
+    <t>繰り返しの最大回数</t>
+  </si>
+  <si>
+    <t>このエレメントが設定されている場合は、回数に範囲があることを示している。したがって、[count]から[countmax]までの回数で繰り返される。</t>
+  </si>
+  <si>
+    <t>32bit整数。もし、値がこれを超える場合はdecimalで記録される。</t>
+  </si>
+  <si>
+    <t>Timing.repeat.countMax</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.duration</t>
   </si>
   <si>
     <t xml:space="preserve">decimal
 </t>
   </si>
   <si>
-    <t>投薬日数</t>
-  </si>
-  <si>
-    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
-  </si>
-  <si>
-    <t>Precision is handled implicitly in almost all cases of measurement.</t>
-  </si>
-  <si>
-    <t>Quantity.value</t>
-  </si>
-  <si>
-    <t>PQ.value, CO.value, MO.value, IVL.high or IVL.low depending on the value</t>
-  </si>
-  <si>
-    <t>SN.2  / CQ - N/A</t>
-  </si>
-  <si>
-    <t>Dosage.timing.repeat.bounds[x].comparator</t>
+    <t>継続時間</t>
+  </si>
+  <si>
+    <t>投与されるタイミングが発生している時間。もし、durationMaxが設定されていれば、このエレメントは許容される継続時間の下限を示す。</t>
+  </si>
+  <si>
+    <t>継続時間はイベントの定義の一部（たとえば、静脈注射(IV)では特定の量と速度が明示される)として示されることがある。その他、Timing仕様の一部（たとえば、運動）として示されることもある。</t>
+  </si>
+  <si>
+    <t>アクティビティによっては即時的なものではなく、その期間において維持される必要がある。</t>
+  </si>
+  <si>
+    <t>Timing.repeat.duration</t>
+  </si>
+  <si>
+    <t>PIVL.phase</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.durationMax</t>
+  </si>
+  <si>
+    <t>継続時間(最大値)</t>
+  </si>
+  <si>
+    <t>もし、このエレメントに値が設定されていれば、durationには範囲があることを示している。したがって、[duration]から[durationMax]までの継続時間の範囲で投与される。</t>
+  </si>
+  <si>
+    <t>Timing.repeat.durationMax</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.durationUnit</t>
   </si>
   <si>
     <t xml:space="preserve">code
 </t>
   </si>
   <si>
-    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
-  </si>
-  <si>
-    <t>How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
-  </si>
-  <si>
-    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
-  </si>
-  <si>
-    <t>If there is no comparator, then there is no modification of the value</t>
+    <t>s | min | h | d | wk | mo | a - unit of time (UCUM)</t>
+  </si>
+  <si>
+    <t>UCUM単位で表される継続時間についての単位。</t>
   </si>
   <si>
     <t>required</t>
   </si>
   <si>
-    <t>How the Quantity should be understood and represented.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
-  </si>
-  <si>
-    <t>Quantity.comparator</t>
-  </si>
-  <si>
-    <t>IVL properties</t>
-  </si>
-  <si>
-    <t>SN.1  / CQ.1</t>
-  </si>
-  <si>
-    <t>Dosage.timing.repeat.bounds[x].unit</t>
-  </si>
-  <si>
-    <t>投薬日数の単位</t>
-  </si>
-  <si>
-    <t>投薬日数の単位文字列。日で固定される</t>
-  </si>
-  <si>
-    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
-  </si>
-  <si>
-    <t>日</t>
-  </si>
-  <si>
-    <t>Quantity.unit</t>
-  </si>
-  <si>
-    <t>PQ.unit</t>
-  </si>
-  <si>
-    <t>(see OBX.6 etc.) / CQ.2</t>
-  </si>
-  <si>
-    <t>Dosage.timing.repeat.bounds[x].system</t>
+    <t>A unit of time (units from UCUM).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/units-of-time|4.0.1</t>
+  </si>
+  <si>
+    <t>Timing.repeat.durationUnit</t>
+  </si>
+  <si>
+    <t>PIVL.phase.unit</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.frequency</t>
+  </si>
+  <si>
+    <t>期間内にイベントが発生する回数、頻度</t>
+  </si>
+  <si>
+    <t>特定の期間に繰り返して発生した行為の回数。もし、frequencyMaxが設定されていれば、このエレメントはfrequencyとして認められた下限を示す。</t>
+  </si>
+  <si>
+    <t>32ビットの数値。もし、値がそれを上回るようであればdecimalを使用する。</t>
+  </si>
+  <si>
+    <t>If no frequency is stated, the assumption is that the event occurs once per period, but systems SHOULD always be specific about this</t>
+  </si>
+  <si>
+    <t>Timing.repeat.frequency</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.frequencyMax</t>
+  </si>
+  <si>
+    <t>期間内にイベントが発生する最大回数、最大頻度</t>
+  </si>
+  <si>
+    <t>このエレメントに値が設定されていれば、frequencyには範囲が指定されている。つまり、期間あるいは期間の範囲内に[frequency]から[frequencyMax]回繰り返されることを示している。</t>
+  </si>
+  <si>
+    <t>Timing.repeat.frequencyMax</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.period</t>
+  </si>
+  <si>
+    <t>イベントが発生する頻度に対応する期間</t>
+  </si>
+  <si>
+    <t>繰り返し投与が行われる期間を示す。たとえば、「1日3回」であれば、3は繰り返しの頻度(frequency)であり、「1日」が期間(period)である。もし、periodMaxに値が設定されていれば、このエレメントは期間として認められた範囲の下限を示す。</t>
+  </si>
+  <si>
+    <t>IEEEの浮動小数点型を使わずに、小数点も含むdecimal型のようなものを利用すること（たとえばJavaのBigInteger)。</t>
+  </si>
+  <si>
+    <t>Timing.repeat.period</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.periodMax</t>
+  </si>
+  <si>
+    <t>期間の上限（3-4時間）</t>
+  </si>
+  <si>
+    <t>もし、この値が設定されていれば、期間は[period]から[periodMax]までであることを示し、「3-5日に1回投与」のような表現が認められる。</t>
+  </si>
+  <si>
+    <t>IEEEの浮動小数点型を使わずに、小数点の制度も示すdecimal型のようなものを利用すること（たとえばJavaのBigInteger)。</t>
+  </si>
+  <si>
+    <t>Timing.repeat.periodMax</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.periodUnit</t>
+  </si>
+  <si>
+    <t>期間を表すUCUM単位。</t>
+  </si>
+  <si>
+    <t>Timing.repeat.periodUnit</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.dayOfWeek</t>
+  </si>
+  <si>
+    <t>mon | tue | wed | thu | fri | sat | sun</t>
+  </si>
+  <si>
+    <t>期間として1週間以上が指定されていれば、指定された曜日のみで投与が行われる。</t>
+  </si>
+  <si>
+    <t>曜日が指定されていなければ、他に指定された日には毎日投与されると想定される。frequencyとperiodエレメントはdayOfWeekと同じように使うことはできない。</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/days-of-week|4.0.1</t>
+  </si>
+  <si>
+    <t>Timing.repeat.dayOfWeek</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.timeOfDay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time
+</t>
+  </si>
+  <si>
+    <t>一日の間で投与される時刻</t>
+  </si>
+  <si>
+    <t>一日の間で指定された投与される時刻。</t>
+  </si>
+  <si>
+    <t>もし、このtimeOfDayに値が指定されていれば、毎日（daysOfWeekでフィルタされた曜日の）指定された時刻に投与されると推定される。whenやfrequency, periodエレメントはtimeOfDayとは同様に使うことはできない。</t>
+  </si>
+  <si>
+    <t>Timing.repeat.timeOfDay</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.when</t>
+  </si>
+  <si>
+    <t>投薬期間についてのコード</t>
+  </si>
+  <si>
+    <t>一日の間のおおよその時間帯で投与すべきタイミングを示す。日常のイベントに関連付けられていることもある。</t>
+  </si>
+  <si>
+    <t>一つ以上のイベントが記載されている場合、そのイベントは特定のイベントの組み合わせと結びついている。</t>
+  </si>
+  <si>
+    <t>タイミングはしばしば起床や食事、睡眠などのできごとによってしばしば決定されている。</t>
+  </si>
+  <si>
+    <t>Real world event relating to the schedule.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/event-timing|4.0.1</t>
+  </si>
+  <si>
+    <t>Timing.repeat.when</t>
+  </si>
+  <si>
+    <t>EIVL.event</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.offset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unsignedInt
+</t>
+  </si>
+  <si>
+    <t>イベントからの時間(分、前後）</t>
+  </si>
+  <si>
+    <t>イベントからの時間(分)。もし、分で示される時間がイベントのコードが前か後かを示していない場合、offsetはイベントの後であることが想定される。</t>
+  </si>
+  <si>
+    <t>Timing.repeat.offset</t>
+  </si>
+  <si>
+    <t>EIVL.offset</t>
+  </si>
+  <si>
+    <t>Dosage.timing.code</t>
+  </si>
+  <si>
+    <t>BID | TID | QID | AM | PM | QD | QOD | +</t>
+  </si>
+  <si>
+    <t>スケジュール上のタイミングを表すコード（あるいはcode.text内のテキスト）。BID(1日2回)のようなコードはどこにでもあるが、多くの医療機関は付加的なコードを定義している。もし、コードが示されていれば、構造化されたタイミングで完全に示されたデータであると解釈され、コードまたはTimingを解釈するためのデータであると解釈される。しかし、例外的に.repeat.bounds（コードは含まれない)はコードを上書きして適用される。</t>
+  </si>
+  <si>
+    <t>BIDなどは「施設特有の時間」として定義される。たとえば、施設がBIDを「つねに朝7時と夕方6時」であると指定することがある。この指定が不適切であれば、BIDというコードは使うべきではない。その代わり、HL7が定義したBIDのコードではなく、その施設特有のコードで明示的に示すべきであり、構造化された表現を使うべきである（この場合、2回のイベントの時刻を指定する必要がある）。  
+【JP Core仕様】頓用指示時にはJAMI処方・注射オーダ標準用法規格の表6 イベント区分、イベント詳細区分(“http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicationAsNeededConditionJAMI_CS”)を推奨するが、MERIT-9 処方オーダ 表5 頓用指示(“http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicationAsNeededConditionMERIT9_CS”) を使用してもよい。</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationUsageInjection_VS</t>
+  </si>
+  <si>
+    <t>Timing.code</t>
+  </si>
+  <si>
+    <t>QSC.code</t>
+  </si>
+  <si>
+    <t>Dosage.asNeeded[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>「頓用」指示</t>
+  </si>
+  <si>
+    <t>JP Coreでは頓用型の用法を指定する場合に”true”を指定し、そのコードを指定する場合は用法コードとして指定する。
+Medication(薬剤)が必要なときに指定された量とスケジュールのみで内服するか（Booleanで選択される）、内服する前提条件(CodeableConcept)を示している。</t>
+  </si>
+  <si>
+    <t>Can express "as needed" without a reason by setting the Boolean = True.  In this case the CodeableConcept is not populated.  Or you can express "as needed" with a reason by including the CodeableConcept.  In this case the Boolean is assumed to be True.  If you set the Boolean to False, then the dose is given according to the schedule and is not "prn" or "as needed".</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=PRCN].target[classCode=OBS, moodCode=EVN, code="as needed"].value=boolean or codable concept</t>
+  </si>
+  <si>
+    <t>TQ1-9</t>
+  </si>
+  <si>
+    <t>Dosage.site</t>
+  </si>
+  <si>
+    <t>投与される身体部位</t>
+  </si>
+  <si>
+    <t>投与される身体部位。外用薬で部位を指定する場合に使用する。</t>
+  </si>
+  <si>
+    <t>もし、BodySite resourceの属性が必要な場合(たとえば、部位の指定や別々に投与経路を設定する場合)は、[bodySite](extension-bodysite.html)の標準拡張を使うこと。要約コードや非常に正確な位置の定義へのreferenceを使用することもできる。  
+【JP Core仕様】JAMI外用部位３桁コードを使用することが望ましいが、ローカルコードも使用可能。</t>
+  </si>
+  <si>
+    <t>A coded specification of the anatomic site where the medication first enters the body.</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationBodySiteJAMIExternal_VS</t>
+  </si>
+  <si>
+    <t>.approachSiteCode</t>
+  </si>
+  <si>
+    <t>RXR-2</t>
+  </si>
+  <si>
+    <t>Dosage.route</t>
+  </si>
+  <si>
+    <t>投与経路</t>
+  </si>
+  <si>
+    <t>投与経路の一般的パターンに全てのターミノロジーが適応しているわけではない。情報モデルはCodeableConceptではなく、直接Codingをを使用してテキストやコーディング、翻訳、そしてエレメントと事前条件、事後条件の関係について管理するためにその構造を提示する必要がある。  
+【JP Core仕様】HL7表0162をベースにした投与経路コードを使用することが望ましいが、ローカルコードも使用可能。</t>
+  </si>
+  <si>
+    <t>A code specifying the route or physiological path of administration of a therapeutic agent into or onto a patient's body.</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicationRouteHL70162_VS</t>
+  </si>
+  <si>
+    <t>.routeCode</t>
+  </si>
+  <si>
+    <t>RXR-1</t>
+  </si>
+  <si>
+    <t>Dosage.method</t>
+  </si>
+  <si>
+    <t>投与方法</t>
+  </si>
+  <si>
+    <t>ターミノロジーは投与する経路あるいは剤型をあらかじめ指定するために用いられる。</t>
+  </si>
+  <si>
+    <t>コード化された値は体内に薬剤が投与される方法を示している。注射ではよく使われる。たとえば、緩徐に注入、深部に静注など。</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>A coded concept describing the technique by which the medicine is administered.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/administration-method-codes</t>
+  </si>
+  <si>
+    <t>.doseQuantity</t>
+  </si>
+  <si>
+    <t>RXR-4</t>
+  </si>
+  <si>
+    <t>Dosage.method.id</t>
+  </si>
+  <si>
+    <t>Dosage.method.extension</t>
+  </si>
+  <si>
+    <t>Dosage.method.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:system}
+</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>unitDigit1</t>
+  </si>
+  <si>
+    <t>投与⽅法に対応するJAMI 用法コード表基本用法１桁コード</t>
+  </si>
+  <si>
+    <t>投与⽅法に対応するJAMI 用法コード表基本用法１桁コードを識別するURI。</t>
+  </si>
+  <si>
+    <t>コードは臨時で列記したものや、コードのリストからSNOMED CTのように公式に定義されたものまである（HL7 v3 core principle を参照)。FHIR自体ではコーディング規約を定めてはいないし、意味を暗示するために利用されない(SHALL NOT)。一般的に UserSelected = trueの場合には一つのコードシステムが使われる。</t>
+  </si>
+  <si>
+    <t>他のコードシステムへの変換や代替のコードシステムを使ってエンコードしてもよい。</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationMethodJAMIBasicUsage_VS</t>
+  </si>
+  <si>
+    <t>Dosage.method.coding.id</t>
+  </si>
+  <si>
+    <t>Dosage.method.coding.extension</t>
+  </si>
+  <si>
+    <t>Dosage.method.coding.system</t>
   </si>
   <si>
     <t xml:space="preserve">uri
 </t>
-  </si>
-  <si>
-    <t>UCUM</t>
-  </si>
-  <si>
-    <t>単位コード UCUMを識別するURI。固定値。</t>
-  </si>
-  <si>
-    <t>Need to know the system that defines the coded form of the unit.</t>
-  </si>
-  <si>
-    <t>http://unitsofmeasure.org</t>
-  </si>
-  <si>
-    <t>Quantity.system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qty-3
-</t>
-  </si>
-  <si>
-    <t>CO.codeSystem, PQ.translation.codeSystem</t>
-  </si>
-  <si>
-    <t>Dosage.timing.repeat.bounds[x].code</t>
-  </si>
-  <si>
-    <t>投与日数の単位</t>
-  </si>
-  <si>
-    <t>単位コードUCUMにおける投与日数の単位。dで固定される。</t>
-  </si>
-  <si>
-    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
-  </si>
-  <si>
-    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>Quantity.code</t>
-  </si>
-  <si>
-    <t>PQ.code, MO.currency, PQ.translation.code</t>
-  </si>
-  <si>
-    <t>boundsRange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Range {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRange}
-</t>
-  </si>
-  <si>
-    <t>Set of values bounded by low and high</t>
-  </si>
-  <si>
-    <t>A set of ordered Quantities defined by a low and high limit.</t>
-  </si>
-  <si>
-    <t>The stated low and high value are assumed to have arbitrarily high precision when it comes to determining which values are in the range. I.e. 1.99 is not in the range 2 -&gt; 3.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-rng-2:If present, low SHALL have a lower value than high {low.empty() or high.empty() or (low &lt;= high)}</t>
-  </si>
-  <si>
-    <t>IVL&lt;QTY[not(type="TS")]&gt; [lowClosed="true" and highClosed="true"]or URG&lt;QTY[not(type="TS")]&gt;</t>
-  </si>
-  <si>
-    <t>NR and also possibly SN (but see also quantity)</t>
-  </si>
-  <si>
-    <t>Dosage.timing.repeat.count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positiveInt
-</t>
-  </si>
-  <si>
-    <t>繰り返し服用もしくは注射回数</t>
-  </si>
-  <si>
-    <t>Timing仕様の全てにおいて、特定の期間に繰り返されるように指定された総回数。もし、countMaxが設定されていれば、このエレメントは許容される最低限度の回数を示す。</t>
-  </si>
-  <si>
-    <t>回数に上限、下限の範囲がある場合は、このcountで示される回数が起きるまでは、エレメントは範囲の中にあると解釈されるべきである。</t>
-  </si>
-  <si>
-    <t>Repetitions may be limited by end time or total occurrences.</t>
-  </si>
-  <si>
-    <t>Timing.repeat.count</t>
-  </si>
-  <si>
-    <t>PIVL.count</t>
-  </si>
-  <si>
-    <t>Dosage.timing.repeat.countMax</t>
-  </si>
-  <si>
-    <t>繰り返しの最大回数</t>
-  </si>
-  <si>
-    <t>このエレメントが設定されている場合は、回数に範囲があることを示している。したがって、[count]から[countmax]までの回数で繰り返される。</t>
-  </si>
-  <si>
-    <t>32bit整数。もし、値がこれを超える場合はdecimalで記録される。</t>
-  </si>
-  <si>
-    <t>Timing.repeat.countMax</t>
-  </si>
-  <si>
-    <t>Dosage.timing.repeat.duration</t>
-  </si>
-  <si>
-    <t>継続時間</t>
-  </si>
-  <si>
-    <t>投与されるタイミングが発生している時間。もし、durationMaxが設定されていれば、このエレメントは許容される継続時間の下限を示す。</t>
-  </si>
-  <si>
-    <t>継続時間はイベントの定義の一部（たとえば、静脈注射(IV)では特定の量と速度が明示される)として示されることがある。その他、Timing仕様の一部（たとえば、運動）として示されることもある。</t>
-  </si>
-  <si>
-    <t>アクティビティによっては即時的なものではなく、その期間において維持される必要がある。</t>
-  </si>
-  <si>
-    <t>Timing.repeat.duration</t>
-  </si>
-  <si>
-    <t>PIVL.phase</t>
-  </si>
-  <si>
-    <t>Dosage.timing.repeat.durationMax</t>
-  </si>
-  <si>
-    <t>継続時間(最大値)</t>
-  </si>
-  <si>
-    <t>もし、このエレメントに値が設定されていれば、durationには範囲があることを示している。したがって、[duration]から[durationMax]までの継続時間の範囲で投与される。</t>
-  </si>
-  <si>
-    <t>Timing.repeat.durationMax</t>
-  </si>
-  <si>
-    <t>Dosage.timing.repeat.durationUnit</t>
-  </si>
-  <si>
-    <t>s | min | h | d | wk | mo | a - unit of time (UCUM)</t>
-  </si>
-  <si>
-    <t>UCUM単位で表される継続時間についての単位。</t>
-  </si>
-  <si>
-    <t>A unit of time (units from UCUM).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/units-of-time|4.0.1</t>
-  </si>
-  <si>
-    <t>Timing.repeat.durationUnit</t>
-  </si>
-  <si>
-    <t>PIVL.phase.unit</t>
-  </si>
-  <si>
-    <t>Dosage.timing.repeat.frequency</t>
-  </si>
-  <si>
-    <t>期間内にイベントが発生する回数、頻度</t>
-  </si>
-  <si>
-    <t>特定の期間に繰り返して発生した行為の回数。もし、frequencyMaxが設定されていれば、このエレメントはfrequencyとして認められた下限を示す。</t>
-  </si>
-  <si>
-    <t>32ビットの数値。もし、値がそれを上回るようであればdecimalを使用する。</t>
-  </si>
-  <si>
-    <t>If no frequency is stated, the assumption is that the event occurs once per period, but systems SHOULD always be specific about this</t>
-  </si>
-  <si>
-    <t>Timing.repeat.frequency</t>
-  </si>
-  <si>
-    <t>Dosage.timing.repeat.frequencyMax</t>
-  </si>
-  <si>
-    <t>期間内にイベントが発生する最大回数、最大頻度</t>
-  </si>
-  <si>
-    <t>このエレメントに値が設定されていれば、frequencyには範囲が指定されている。つまり、期間あるいは期間の範囲内に[frequency]から[frequencyMax]回繰り返されることを示している。</t>
-  </si>
-  <si>
-    <t>Timing.repeat.frequencyMax</t>
-  </si>
-  <si>
-    <t>Dosage.timing.repeat.period</t>
-  </si>
-  <si>
-    <t>イベントが発生する頻度に対応する期間</t>
-  </si>
-  <si>
-    <t>繰り返し投与が行われる期間を示す。たとえば、「1日3回」であれば、3は繰り返しの頻度(frequency)であり、「1日」が期間(period)である。もし、periodMaxに値が設定されていれば、このエレメントは期間として認められた範囲の下限を示す。</t>
-  </si>
-  <si>
-    <t>IEEEの浮動小数点型を使わずに、小数点も含むdecimal型のようなものを利用すること（たとえばJavaのBigInteger)。</t>
-  </si>
-  <si>
-    <t>Timing.repeat.period</t>
-  </si>
-  <si>
-    <t>Dosage.timing.repeat.periodMax</t>
-  </si>
-  <si>
-    <t>期間の上限（3-4時間）</t>
-  </si>
-  <si>
-    <t>もし、この値が設定されていれば、期間は[period]から[periodMax]までであることを示し、「3-5日に1回投与」のような表現が認められる。</t>
-  </si>
-  <si>
-    <t>IEEEの浮動小数点型を使わずに、小数点の制度も示すdecimal型のようなものを利用すること（たとえばJavaのBigInteger)。</t>
-  </si>
-  <si>
-    <t>Timing.repeat.periodMax</t>
-  </si>
-  <si>
-    <t>Dosage.timing.repeat.periodUnit</t>
-  </si>
-  <si>
-    <t>期間を表すUCUM単位。</t>
-  </si>
-  <si>
-    <t>Timing.repeat.periodUnit</t>
-  </si>
-  <si>
-    <t>Dosage.timing.repeat.dayOfWeek</t>
-  </si>
-  <si>
-    <t>mon | tue | wed | thu | fri | sat | sun</t>
-  </si>
-  <si>
-    <t>期間として1週間以上が指定されていれば、指定された曜日のみで投与が行われる。</t>
-  </si>
-  <si>
-    <t>曜日が指定されていなければ、他に指定された日には毎日投与されると想定される。frequencyとperiodエレメントはdayOfWeekと同じように使うことはできない。</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/days-of-week|4.0.1</t>
-  </si>
-  <si>
-    <t>Timing.repeat.dayOfWeek</t>
-  </si>
-  <si>
-    <t>Dosage.timing.repeat.timeOfDay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">time
-</t>
-  </si>
-  <si>
-    <t>一日の間で投与される時刻</t>
-  </si>
-  <si>
-    <t>一日の間で指定された投与される時刻。</t>
-  </si>
-  <si>
-    <t>もし、このtimeOfDayに値が指定されていれば、毎日（daysOfWeekでフィルタされた曜日の）指定された時刻に投与されると推定される。whenやfrequency, periodエレメントはtimeOfDayとは同様に使うことはできない。</t>
-  </si>
-  <si>
-    <t>Timing.repeat.timeOfDay</t>
-  </si>
-  <si>
-    <t>Dosage.timing.repeat.when</t>
-  </si>
-  <si>
-    <t>投薬期間についてのコード</t>
-  </si>
-  <si>
-    <t>一日の間のおおよその時間帯で投与すべきタイミングを示す。日常のイベントに関連付けられていることもある。</t>
-  </si>
-  <si>
-    <t>一つ以上のイベントが記載されている場合、そのイベントは特定のイベントの組み合わせと結びついている。</t>
-  </si>
-  <si>
-    <t>タイミングはしばしば起床や食事、睡眠などのできごとによってしばしば決定されている。</t>
-  </si>
-  <si>
-    <t>Real world event relating to the schedule.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/event-timing|4.0.1</t>
-  </si>
-  <si>
-    <t>Timing.repeat.when</t>
-  </si>
-  <si>
-    <t>EIVL.event</t>
-  </si>
-  <si>
-    <t>Dosage.timing.repeat.offset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unsignedInt
-</t>
-  </si>
-  <si>
-    <t>イベントからの時間(分、前後）</t>
-  </si>
-  <si>
-    <t>イベントからの時間(分)。もし、分で示される時間がイベントのコードが前か後かを示していない場合、offsetはイベントの後であることが想定される。</t>
-  </si>
-  <si>
-    <t>Timing.repeat.offset</t>
-  </si>
-  <si>
-    <t>EIVL.offset</t>
-  </si>
-  <si>
-    <t>Dosage.timing.code</t>
-  </si>
-  <si>
-    <t>BID | TID | QID | AM | PM | QD | QOD | +</t>
-  </si>
-  <si>
-    <t>スケジュール上のタイミングを表すコード（あるいはcode.text内のテキスト）。BID(1日2回)のようなコードはどこにでもあるが、多くの医療機関は付加的なコードを定義している。もし、コードが示されていれば、構造化されたタイミングで完全に示されたデータであると解釈され、コードまたはTimingを解釈するためのデータであると解釈される。しかし、例外的に.repeat.bounds（コードは含まれない)はコードを上書きして適用される。</t>
-  </si>
-  <si>
-    <t>BIDなどは「施設特有の時間」として定義される。たとえば、施設がBIDを「つねに朝7時と夕方6時」であると指定することがある。この指定が不適切であれば、BIDというコードは使うべきではない。その代わり、HL7が定義したBIDのコードではなく、その施設特有のコードで明示的に示すべきであり、構造化された表現を使うべきである（この場合、2回のイベントの時刻を指定する必要がある）。  
-【JP Core仕様】頓用指示時にはJAMI処方・注射オーダ標準用法規格の表6 イベント区分、イベント詳細区分(“http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicationAsNeededConditionJAMI_CS”)を推奨するが、MERIT-9 処方オーダ 表5 頓用指示(“http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicationAsNeededConditionMERIT9_CS”) を使用してもよい。</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationUsageInjection_VS</t>
-  </si>
-  <si>
-    <t>Timing.code</t>
-  </si>
-  <si>
-    <t>QSC.code</t>
-  </si>
-  <si>
-    <t>Dosage.asNeeded[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>「頓用」指示</t>
-  </si>
-  <si>
-    <t>JP Coreでは頓用型の用法を指定する場合に”true”を指定し、そのコードを指定する場合は用法コードとして指定する。
-Medication(薬剤)が必要なときに指定された量とスケジュールのみで内服するか（Booleanで選択される）、内服する前提条件(CodeableConcept)を示している。</t>
-  </si>
-  <si>
-    <t>Can express "as needed" without a reason by setting the Boolean = True.  In this case the CodeableConcept is not populated.  Or you can express "as needed" with a reason by including the CodeableConcept.  In this case the Boolean is assumed to be True.  If you set the Boolean to False, then the dose is given according to the schedule and is not "prn" or "as needed".</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=PRCN].target[classCode=OBS, moodCode=EVN, code="as needed"].value=boolean or codable concept</t>
-  </si>
-  <si>
-    <t>TQ1-9</t>
-  </si>
-  <si>
-    <t>Dosage.site</t>
-  </si>
-  <si>
-    <t>投与される身体部位</t>
-  </si>
-  <si>
-    <t>投与される身体部位。外用薬で部位を指定する場合に使用する。</t>
-  </si>
-  <si>
-    <t>もし、BodySite resourceの属性が必要な場合(たとえば、部位の指定や別々に投与経路を設定する場合)は、[bodySite](extension-bodysite.html)の標準拡張を使うこと。要約コードや非常に正確な位置の定義へのreferenceを使用することもできる。  
-【JP Core仕様】JAMI外用部位３桁コードを使用することが望ましいが、ローカルコードも使用可能。</t>
-  </si>
-  <si>
-    <t>A coded specification of the anatomic site where the medication first enters the body.</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationBodySiteJAMIExternal_VS</t>
-  </si>
-  <si>
-    <t>.approachSiteCode</t>
-  </si>
-  <si>
-    <t>RXR-2</t>
-  </si>
-  <si>
-    <t>Dosage.route</t>
-  </si>
-  <si>
-    <t>投与経路</t>
-  </si>
-  <si>
-    <t>投与経路の一般的パターンに全てのターミノロジーが適応しているわけではない。情報モデルはCodeableConceptではなく、直接Codingをを使用してテキストやコーディング、翻訳、そしてエレメントと事前条件、事後条件の関係について管理するためにその構造を提示する必要がある。  
-【JP Core仕様】HL7表0162をベースにした投与経路コードを使用することが望ましいが、ローカルコードも使用可能。</t>
-  </si>
-  <si>
-    <t>A code specifying the route or physiological path of administration of a therapeutic agent into or onto a patient's body.</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicationRouteHL70162_VS</t>
-  </si>
-  <si>
-    <t>.routeCode</t>
-  </si>
-  <si>
-    <t>RXR-1</t>
-  </si>
-  <si>
-    <t>Dosage.method</t>
-  </si>
-  <si>
-    <t>投与方法</t>
-  </si>
-  <si>
-    <t>ターミノロジーは投与する経路あるいは剤型をあらかじめ指定するために用いられる。</t>
-  </si>
-  <si>
-    <t>コード化された値は体内に薬剤が投与される方法を示している。注射ではよく使われる。たとえば、緩徐に注入、深部に静注など。</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>A coded concept describing the technique by which the medicine is administered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/administration-method-codes</t>
-  </si>
-  <si>
-    <t>.doseQuantity</t>
-  </si>
-  <si>
-    <t>RXR-4</t>
-  </si>
-  <si>
-    <t>Dosage.method.id</t>
-  </si>
-  <si>
-    <t>Dosage.method.extension</t>
-  </si>
-  <si>
-    <t>Dosage.method.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:system}
-</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>unitDigit1</t>
-  </si>
-  <si>
-    <t>投与⽅法に対応するJAMI 用法コード表基本用法１桁コード</t>
-  </si>
-  <si>
-    <t>投与⽅法に対応するJAMI 用法コード表基本用法１桁コードを識別するURI。</t>
-  </si>
-  <si>
-    <t>コードは臨時で列記したものや、コードのリストからSNOMED CTのように公式に定義されたものまである（HL7 v3 core principle を参照)。FHIR自体ではコーディング規約を定めてはいないし、意味を暗示するために利用されない(SHALL NOT)。一般的に UserSelected = trueの場合には一つのコードシステムが使われる。</t>
-  </si>
-  <si>
-    <t>他のコードシステムへの変換や代替のコードシステムを使ってエンコードしてもよい。</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationMethodJAMIBasicUsage_VS</t>
-  </si>
-  <si>
-    <t>Dosage.method.coding.id</t>
-  </si>
-  <si>
-    <t>Dosage.method.coding.extension</t>
-  </si>
-  <si>
-    <t>Dosage.method.coding.system</t>
   </si>
   <si>
     <t>Identity of the terminology system</t>
@@ -1500,9 +1357,51 @@
     <t>Dosage.doseAndRate.rate[x].numerator.value</t>
   </si>
   <si>
+    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
+  </si>
+  <si>
+    <t>Precision is handled implicitly in almost all cases of measurement.</t>
+  </si>
+  <si>
+    <t>Quantity.value</t>
+  </si>
+  <si>
+    <t>PQ.value, CO.value, MO.value, IVL.high or IVL.low depending on the value</t>
+  </si>
+  <si>
+    <t>SN.2  / CQ - N/A</t>
+  </si>
+  <si>
     <t>Dosage.doseAndRate.rate[x].numerator.comparator</t>
   </si>
   <si>
+    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
+  </si>
+  <si>
+    <t>How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
+  </si>
+  <si>
+    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
+  </si>
+  <si>
+    <t>If there is no comparator, then there is no modification of the value</t>
+  </si>
+  <si>
+    <t>How the Quantity should be understood and represented.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
+  </si>
+  <si>
+    <t>Quantity.comparator</t>
+  </si>
+  <si>
+    <t>IVL properties</t>
+  </si>
+  <si>
+    <t>SN.1  / CQ.1</t>
+  </si>
+  <si>
     <t>Dosage.doseAndRate.rate[x].numerator.unit</t>
   </si>
   <si>
@@ -1512,6 +1411,18 @@
     <t>投与量（体積）の単位。UCUMを使用する。</t>
   </si>
   <si>
+    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
+  </si>
+  <si>
+    <t>Quantity.unit</t>
+  </si>
+  <si>
+    <t>PQ.unit</t>
+  </si>
+  <si>
+    <t>(see OBX.6 etc.) / CQ.2</t>
+  </si>
+  <si>
     <t>Dosage.doseAndRate.rate[x].numerator.system</t>
   </si>
   <si>
@@ -1521,6 +1432,22 @@
     <t>The identification of the system that provides the coded form of the unit.</t>
   </si>
   <si>
+    <t>Need to know the system that defines the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>http://unitsofmeasure.org</t>
+  </si>
+  <si>
+    <t>Quantity.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qty-3
+</t>
+  </si>
+  <si>
+    <t>CO.codeSystem, PQ.translation.codeSystem</t>
+  </si>
+  <si>
     <t>Dosage.doseAndRate.rate[x].numerator.code</t>
   </si>
   <si>
@@ -1528,6 +1455,18 @@
   </si>
   <si>
     <t>A computer processable form of the unit in some unit representation system.</t>
+  </si>
+  <si>
+    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
+  </si>
+  <si>
+    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
+  </si>
+  <si>
+    <t>Quantity.code</t>
+  </si>
+  <si>
+    <t>PQ.code, MO.currency, PQ.translation.code</t>
   </si>
   <si>
     <t>Dosage.doseAndRate.rate[x].denominator</t>
@@ -1913,7 +1852,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK102"/>
+  <dimension ref="A1:AK94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1923,7 +1862,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="51.13671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="15.734375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="14.5390625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -4301,7 +4240,7 @@
         <v>74</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>185</v>
@@ -4312,7 +4251,9 @@
       <c r="L23" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="M23" s="2"/>
+      <c r="M23" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>74</v>
@@ -4370,21 +4311,21 @@
         <v>82</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>74</v>
+        <v>189</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>79</v>
+        <v>190</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>74</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4404,19 +4345,23 @@
         <v>74</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>83</v>
+        <v>194</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>84</v>
+        <v>195</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>74</v>
       </c>
@@ -4464,7 +4409,7 @@
         <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>86</v>
+        <v>199</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
@@ -4476,10 +4421,10 @@
         <v>74</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>87</v>
+        <v>200</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>74</v>
@@ -4487,18 +4432,18 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>74</v>
@@ -4507,19 +4452,19 @@
         <v>74</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>90</v>
+        <v>194</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>91</v>
+        <v>202</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>92</v>
+        <v>203</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>93</v>
+        <v>204</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4557,34 +4502,34 @@
         <v>74</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>97</v>
+        <v>205</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>87</v>
+        <v>200</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>74</v>
@@ -4592,7 +4537,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4615,19 +4560,19 @@
         <v>117</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>74</v>
@@ -4676,7 +4621,7 @@
         <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>75</v>
@@ -4691,15 +4636,15 @@
         <v>79</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>197</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4710,36 +4655,36 @@
         <v>75</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>117</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="N27" t="s" s="2">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="P27" t="s" s="2">
-        <v>203</v>
-      </c>
+      <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
         <v>74</v>
       </c>
@@ -4759,13 +4704,13 @@
         <v>74</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>204</v>
+        <v>74</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>205</v>
+        <v>74</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>206</v>
+        <v>74</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>74</v>
@@ -4783,7 +4728,7 @@
         <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
@@ -4798,15 +4743,15 @@
         <v>79</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>209</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4829,24 +4774,24 @@
         <v>117</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>83</v>
+        <v>219</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M28" s="2"/>
-      <c r="N28" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>214</v>
+        <v>74</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>74</v>
@@ -4864,13 +4809,13 @@
         <v>74</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>74</v>
+        <v>222</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>74</v>
+        <v>223</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>74</v>
+        <v>224</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>74</v>
@@ -4888,7 +4833,7 @@
         <v>74</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
@@ -4903,15 +4848,15 @@
         <v>79</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>217</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4934,24 +4879,26 @@
         <v>117</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="M29" s="2"/>
-      <c r="N29" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="P29" s="2"/>
+      <c r="P29" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="Q29" t="s" s="2">
-        <v>223</v>
+        <v>74</v>
       </c>
       <c r="R29" t="s" s="2">
         <v>74</v>
@@ -4993,7 +4940,7 @@
         <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
@@ -5002,21 +4949,21 @@
         <v>82</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>225</v>
+        <v>74</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>217</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5039,26 +4986,24 @@
         <v>117</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="M30" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="N30" t="s" s="2">
-        <v>231</v>
-      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>232</v>
+        <v>74</v>
       </c>
       <c r="R30" t="s" s="2">
         <v>74</v>
@@ -5100,7 +5045,7 @@
         <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
@@ -5115,19 +5060,17 @@
         <v>79</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>217</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
         <v>74</v>
       </c>
@@ -5145,19 +5088,19 @@
         <v>74</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>236</v>
+        <v>207</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5207,7 +5150,7 @@
         <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>182</v>
+        <v>241</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
@@ -5216,21 +5159,21 @@
         <v>82</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>240</v>
+        <v>74</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>241</v>
+        <v>79</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>243</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5253,20 +5196,18 @@
         <v>117</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="K32" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>249</v>
-      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>74</v>
       </c>
@@ -5314,7 +5255,7 @@
         <v>74</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
@@ -5329,7 +5270,7 @@
         <v>79</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>251</v>
+        <v>213</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>74</v>
@@ -5337,7 +5278,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5360,16 +5301,16 @@
         <v>117</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>255</v>
+        <v>149</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5395,13 +5336,13 @@
         <v>74</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>74</v>
+        <v>222</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>74</v>
+        <v>223</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>74</v>
+        <v>224</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>74</v>
@@ -5419,7 +5360,7 @@
         <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
@@ -5434,7 +5375,7 @@
         <v>79</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>74</v>
@@ -5442,7 +5383,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5453,7 +5394,7 @@
         <v>75</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>74</v>
@@ -5465,20 +5406,18 @@
         <v>117</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>74</v>
       </c>
@@ -5502,13 +5441,11 @@
         <v>74</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="X34" s="2"/>
       <c r="Y34" t="s" s="2">
-        <v>74</v>
+        <v>254</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>74</v>
@@ -5526,13 +5463,13 @@
         <v>74</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>74</v>
@@ -5541,7 +5478,7 @@
         <v>79</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>263</v>
+        <v>87</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>74</v>
@@ -5549,7 +5486,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5560,7 +5497,7 @@
         <v>75</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>74</v>
@@ -5572,20 +5509,18 @@
         <v>117</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="N35" t="s" s="2">
-        <v>261</v>
-      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>74</v>
       </c>
@@ -5633,13 +5568,13 @@
         <v>74</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>74</v>
@@ -5648,7 +5583,7 @@
         <v>79</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>263</v>
+        <v>87</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>74</v>
@@ -5656,7 +5591,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5667,7 +5602,7 @@
         <v>75</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>74</v>
@@ -5679,18 +5614,20 @@
         <v>117</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>74</v>
       </c>
@@ -5714,13 +5651,13 @@
         <v>74</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>74</v>
@@ -5738,13 +5675,13 @@
         <v>74</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>74</v>
@@ -5753,7 +5690,7 @@
         <v>79</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>74</v>
@@ -5761,7 +5698,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5784,24 +5721,22 @@
         <v>117</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>278</v>
+        <v>230</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="P37" t="s" s="2">
-        <v>279</v>
-      </c>
+      <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
         <v>74</v>
       </c>
@@ -5845,7 +5780,7 @@
         <v>74</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
@@ -5860,7 +5795,7 @@
         <v>79</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>74</v>
@@ -5868,7 +5803,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5891,16 +5826,16 @@
         <v>117</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>245</v>
+        <v>138</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5926,13 +5861,11 @@
         <v>74</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="X38" s="2"/>
       <c r="Y38" t="s" s="2">
-        <v>74</v>
+        <v>281</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>74</v>
@@ -5950,7 +5883,7 @@
         <v>74</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>75</v>
@@ -5965,7 +5898,7 @@
         <v>79</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>74</v>
@@ -5973,7 +5906,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5996,7 +5929,7 @@
         <v>117</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>191</v>
+        <v>285</v>
       </c>
       <c r="K39" t="s" s="2">
         <v>286</v>
@@ -6055,7 +5988,7 @@
         <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
@@ -6070,15 +6003,15 @@
         <v>79</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>74</v>
+        <v>290</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6101,18 +6034,20 @@
         <v>117</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>191</v>
+        <v>138</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>74</v>
       </c>
@@ -6136,13 +6071,11 @@
         <v>74</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="X40" s="2"/>
       <c r="Y40" t="s" s="2">
-        <v>74</v>
+        <v>296</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>74</v>
@@ -6160,7 +6093,7 @@
         <v>74</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
@@ -6175,15 +6108,15 @@
         <v>79</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>263</v>
+        <v>297</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>74</v>
+        <v>298</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6206,18 +6139,20 @@
         <v>117</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>199</v>
+        <v>138</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>302</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>74</v>
       </c>
@@ -6241,13 +6176,11 @@
         <v>74</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>271</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="X41" s="2"/>
       <c r="Y41" t="s" s="2">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>74</v>
@@ -6265,7 +6198,7 @@
         <v>74</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>75</v>
@@ -6280,15 +6213,15 @@
         <v>79</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>74</v>
+        <v>305</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6299,7 +6232,7 @@
         <v>75</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>74</v>
@@ -6311,18 +6244,20 @@
         <v>117</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>199</v>
+        <v>138</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>74</v>
       </c>
@@ -6346,11 +6281,13 @@
         <v>74</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="X42" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="Y42" t="s" s="2">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>74</v>
@@ -6368,13 +6305,13 @@
         <v>74</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>74</v>
@@ -6383,15 +6320,15 @@
         <v>79</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>87</v>
+        <v>313</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>74</v>
+        <v>314</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6402,7 +6339,7 @@
         <v>75</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>74</v>
@@ -6411,20 +6348,18 @@
         <v>74</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>305</v>
+        <v>83</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>306</v>
+        <v>84</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>308</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>74</v>
@@ -6473,19 +6408,19 @@
         <v>74</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>309</v>
+        <v>86</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>87</v>
@@ -6496,11 +6431,11 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6516,23 +6451,21 @@
         <v>74</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>199</v>
+        <v>90</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>311</v>
+        <v>91</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>312</v>
+        <v>92</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>74</v>
       </c>
@@ -6556,31 +6489,31 @@
         <v>74</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>204</v>
+        <v>74</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>315</v>
+        <v>74</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>316</v>
+        <v>74</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>317</v>
+        <v>97</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>75</v>
@@ -6592,10 +6525,10 @@
         <v>74</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>318</v>
+        <v>87</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>74</v>
@@ -6603,7 +6536,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6614,7 +6547,7 @@
         <v>75</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>74</v>
@@ -6626,18 +6559,20 @@
         <v>117</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="M45" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>74</v>
       </c>
@@ -6673,25 +6608,23 @@
         <v>74</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="AB45" s="2"/>
       <c r="AC45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>74</v>
@@ -6700,17 +6633,19 @@
         <v>79</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>74</v>
+        <v>326</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="B46" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="C46" t="s" s="2">
         <v>74</v>
       </c>
@@ -6731,18 +6666,20 @@
         <v>117</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>138</v>
+        <v>318</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>330</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>74</v>
       </c>
@@ -6770,7 +6707,7 @@
       </c>
       <c r="X46" s="2"/>
       <c r="Y46" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>74</v>
@@ -6788,13 +6725,13 @@
         <v>74</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>74</v>
@@ -6803,15 +6740,15 @@
         <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>74</v>
+        <v>326</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6831,20 +6768,18 @@
         <v>74</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>333</v>
+        <v>83</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>334</v>
+        <v>84</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>336</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>74</v>
@@ -6893,7 +6828,7 @@
         <v>74</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>332</v>
+        <v>86</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
@@ -6905,29 +6840,29 @@
         <v>74</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>337</v>
+        <v>87</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>338</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>74</v>
@@ -6936,23 +6871,21 @@
         <v>74</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>138</v>
+        <v>90</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>340</v>
+        <v>91</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>341</v>
+        <v>92</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>343</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>74</v>
       </c>
@@ -6976,52 +6909,54 @@
         <v>74</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="X48" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y48" t="s" s="2">
-        <v>344</v>
+        <v>74</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AC48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>339</v>
+        <v>97</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>345</v>
+        <v>87</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>346</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7029,7 +6964,7 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>82</v>
@@ -7044,26 +6979,26 @@
         <v>117</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>138</v>
+        <v>336</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>74</v>
+        <v>341</v>
       </c>
       <c r="R49" t="s" s="2">
         <v>74</v>
@@ -7081,11 +7016,13 @@
         <v>74</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="X49" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y49" t="s" s="2">
-        <v>351</v>
+        <v>74</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>74</v>
@@ -7103,7 +7040,7 @@
         <v>74</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>75</v>
@@ -7118,15 +7055,15 @@
         <v>79</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>353</v>
+        <v>344</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7149,20 +7086,18 @@
         <v>117</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>357</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>74</v>
       </c>
@@ -7186,13 +7121,13 @@
         <v>74</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>358</v>
+        <v>74</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>359</v>
+        <v>74</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>360</v>
+        <v>74</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>74</v>
@@ -7210,7 +7145,7 @@
         <v>74</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>75</v>
@@ -7225,15 +7160,15 @@
         <v>79</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>362</v>
+        <v>351</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7253,19 +7188,21 @@
         <v>74</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>83</v>
+        <v>219</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>84</v>
+        <v>353</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>85</v>
+        <v>354</v>
       </c>
       <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
+      <c r="N51" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>74</v>
       </c>
@@ -7313,7 +7250,7 @@
         <v>74</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>86</v>
+        <v>356</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>75</v>
@@ -7325,29 +7262,29 @@
         <v>74</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>87</v>
+        <v>357</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>74</v>
+        <v>358</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>74</v>
@@ -7356,21 +7293,21 @@
         <v>74</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>91</v>
+        <v>360</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>74</v>
       </c>
@@ -7406,42 +7343,42 @@
         <v>74</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AC52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>97</v>
+        <v>363</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>87</v>
+        <v>364</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>74</v>
+        <v>365</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7452,7 +7389,7 @@
         <v>75</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>74</v>
@@ -7464,7 +7401,7 @@
         <v>117</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>366</v>
+        <v>285</v>
       </c>
       <c r="K53" t="s" s="2">
         <v>367</v>
@@ -7513,23 +7450,25 @@
         <v>74</v>
       </c>
       <c r="AA53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE53" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="AB53" s="2"/>
-      <c r="AC53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>372</v>
-      </c>
       <c r="AF53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>74</v>
@@ -7538,18 +7477,18 @@
         <v>79</v>
       </c>
       <c r="AJ53" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AK53" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>374</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>365</v>
+        <v>317</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C54" t="s" s="2">
         <v>74</v>
@@ -7571,19 +7510,19 @@
         <v>117</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>366</v>
+        <v>318</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="L54" t="s" s="2">
-        <v>377</v>
-      </c>
       <c r="M54" t="s" s="2">
-        <v>378</v>
+        <v>330</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>379</v>
+        <v>331</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>74</v>
@@ -7612,7 +7551,7 @@
       </c>
       <c r="X54" s="2"/>
       <c r="Y54" t="s" s="2">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>74</v>
@@ -7630,7 +7569,7 @@
         <v>74</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>372</v>
+        <v>324</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>75</v>
@@ -7645,15 +7584,15 @@
         <v>79</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>373</v>
+        <v>325</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>374</v>
+        <v>326</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>381</v>
+        <v>333</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7756,7 +7695,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>382</v>
+        <v>334</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7861,7 +7800,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>383</v>
+        <v>335</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7884,26 +7823,26 @@
         <v>117</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>219</v>
+        <v>336</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>384</v>
+        <v>337</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>385</v>
+        <v>338</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>386</v>
+        <v>339</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>387</v>
+        <v>340</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" t="s" s="2">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="R57" t="s" s="2">
         <v>74</v>
@@ -7945,7 +7884,7 @@
         <v>74</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>389</v>
+        <v>342</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>75</v>
@@ -7960,15 +7899,15 @@
         <v>79</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>390</v>
+        <v>343</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>391</v>
+        <v>344</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>392</v>
+        <v>345</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7994,13 +7933,13 @@
         <v>83</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>393</v>
+        <v>346</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>394</v>
+        <v>347</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>395</v>
+        <v>348</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8050,7 +7989,7 @@
         <v>74</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>396</v>
+        <v>349</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>75</v>
@@ -8065,15 +8004,15 @@
         <v>79</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>397</v>
+        <v>350</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>398</v>
+        <v>351</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>399</v>
+        <v>352</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8096,17 +8035,17 @@
         <v>117</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>400</v>
+        <v>353</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>401</v>
+        <v>354</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" t="s" s="2">
-        <v>402</v>
+        <v>355</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>74</v>
@@ -8155,7 +8094,7 @@
         <v>74</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>403</v>
+        <v>356</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>75</v>
@@ -8170,15 +8109,15 @@
         <v>79</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>404</v>
+        <v>357</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>405</v>
+        <v>358</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>406</v>
+        <v>359</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8204,14 +8143,14 @@
         <v>83</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>407</v>
+        <v>360</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>408</v>
+        <v>361</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>409</v>
+        <v>362</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>74</v>
@@ -8260,7 +8199,7 @@
         <v>74</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>410</v>
+        <v>363</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>75</v>
@@ -8275,15 +8214,15 @@
         <v>79</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>411</v>
+        <v>364</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>412</v>
+        <v>365</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>413</v>
+        <v>366</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8306,19 +8245,19 @@
         <v>117</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>333</v>
+        <v>285</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>414</v>
+        <v>367</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>415</v>
+        <v>368</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>416</v>
+        <v>369</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>417</v>
+        <v>370</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>74</v>
@@ -8367,7 +8306,7 @@
         <v>74</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>418</v>
+        <v>371</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>75</v>
@@ -8382,19 +8321,17 @@
         <v>79</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>419</v>
+        <v>372</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>420</v>
+        <v>373</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>421</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
         <v>74</v>
       </c>
@@ -8415,19 +8352,19 @@
         <v>117</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>366</v>
+        <v>83</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>422</v>
+        <v>132</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>423</v>
+        <v>133</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>378</v>
+        <v>134</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>379</v>
+        <v>135</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>74</v>
@@ -8452,11 +8389,13 @@
         <v>74</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="X62" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y62" t="s" s="2">
-        <v>424</v>
+        <v>74</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>74</v>
@@ -8474,13 +8413,13 @@
         <v>74</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>74</v>
@@ -8489,15 +8428,15 @@
         <v>79</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>374</v>
+        <v>382</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8508,7 +8447,7 @@
         <v>75</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>74</v>
@@ -8517,16 +8456,16 @@
         <v>74</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>83</v>
+        <v>168</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>84</v>
+        <v>384</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>85</v>
+        <v>385</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8577,41 +8516,41 @@
         <v>74</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>86</v>
+        <v>383</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>74</v>
+        <v>386</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>74</v>
@@ -8623,17 +8562,15 @@
         <v>74</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>93</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>74</v>
@@ -8670,31 +8607,31 @@
         <v>74</v>
       </c>
       <c r="AA64" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AC64" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>87</v>
@@ -8705,18 +8642,18 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>74</v>
@@ -8725,29 +8662,27 @@
         <v>74</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>219</v>
+        <v>90</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>384</v>
+        <v>91</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>385</v>
+        <v>92</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>387</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" t="s" s="2">
-        <v>425</v>
+        <v>74</v>
       </c>
       <c r="R65" t="s" s="2">
         <v>74</v>
@@ -8777,42 +8712,42 @@
         <v>74</v>
       </c>
       <c r="AA65" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AC65" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD65" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>389</v>
+        <v>97</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>390</v>
+        <v>87</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>391</v>
+        <v>74</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8835,18 +8770,20 @@
         <v>117</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>391</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>392</v>
+      </c>
       <c r="O66" t="s" s="2">
         <v>74</v>
       </c>
@@ -8870,13 +8807,11 @@
         <v>74</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="X66" s="2"/>
       <c r="Y66" t="s" s="2">
-        <v>74</v>
+        <v>393</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>74</v>
@@ -8894,7 +8829,7 @@
         <v>74</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>75</v>
@@ -8909,15 +8844,15 @@
         <v>79</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>397</v>
+        <v>74</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8937,20 +8872,22 @@
         <v>74</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>199</v>
+        <v>396</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="M67" s="2"/>
+        <v>397</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>398</v>
+      </c>
       <c r="N67" t="s" s="2">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>74</v>
@@ -8987,44 +8924,44 @@
         <v>74</v>
       </c>
       <c r="AA67" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="AB67" s="2"/>
       <c r="AC67" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD67" t="s" s="2">
-        <v>74</v>
+        <v>400</v>
       </c>
       <c r="AE67" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AK67" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>405</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="B68" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>404</v>
+      </c>
       <c r="C68" t="s" s="2">
         <v>74</v>
       </c>
@@ -9042,20 +8979,22 @@
         <v>74</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>83</v>
+        <v>185</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>407</v>
+        <v>186</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M68" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="N68" t="s" s="2">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>74</v>
@@ -9104,7 +9043,7 @@
         <v>74</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>75</v>
@@ -9113,23 +9052,25 @@
         <v>82</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>74</v>
+        <v>189</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>79</v>
+        <v>190</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>411</v>
+        <v>191</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>412</v>
+        <v>192</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="B69" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="C69" t="s" s="2">
         <v>74</v>
       </c>
@@ -9147,22 +9088,22 @@
         <v>74</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>333</v>
+        <v>406</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>74</v>
@@ -9211,7 +9152,7 @@
         <v>74</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>418</v>
+        <v>395</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>75</v>
@@ -9220,21 +9161,21 @@
         <v>82</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>74</v>
+        <v>189</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>79</v>
+        <v>401</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>420</v>
+        <v>403</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9257,19 +9198,19 @@
         <v>117</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>83</v>
+        <v>410</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>132</v>
+        <v>384</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>133</v>
+        <v>385</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>134</v>
+        <v>411</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>135</v>
+        <v>412</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>74</v>
@@ -9306,19 +9247,17 @@
         <v>74</v>
       </c>
       <c r="AA70" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="AB70" s="2"/>
       <c r="AC70" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD70" t="s" s="2">
-        <v>74</v>
+        <v>400</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>75</v>
@@ -9333,17 +9272,19 @@
         <v>79</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>429</v>
+        <v>414</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="B71" s="2"/>
+        <v>409</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>415</v>
+      </c>
       <c r="C71" t="s" s="2">
         <v>74</v>
       </c>
@@ -9352,7 +9293,7 @@
         <v>75</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>74</v>
@@ -9361,19 +9302,23 @@
         <v>74</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>168</v>
+        <v>410</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>419</v>
+      </c>
       <c r="O71" t="s" s="2">
         <v>74</v>
       </c>
@@ -9421,30 +9366,30 @@
         <v>74</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>430</v>
+        <v>409</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>74</v>
+        <v>189</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>79</v>
+        <v>420</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>74</v>
+        <v>421</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>433</v>
+        <v>122</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9547,7 +9492,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9652,7 +9597,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9675,20 +9620,16 @@
         <v>117</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>138</v>
+        <v>425</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>439</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>74</v>
       </c>
@@ -9712,11 +9653,13 @@
         <v>74</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="X74" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y74" t="s" s="2">
-        <v>440</v>
+        <v>74</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>74</v>
@@ -9734,7 +9677,7 @@
         <v>74</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>75</v>
@@ -9749,15 +9692,15 @@
         <v>79</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>74</v>
+        <v>428</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>441</v>
+        <v>74</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9780,20 +9723,16 @@
         <v>74</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>443</v>
+        <v>83</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>444</v>
+        <v>84</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>446</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>74</v>
       </c>
@@ -9829,17 +9768,19 @@
         <v>74</v>
       </c>
       <c r="AA75" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AB75" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AC75" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD75" t="s" s="2">
-        <v>447</v>
+        <v>74</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>442</v>
+        <v>86</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>75</v>
@@ -9848,34 +9789,32 @@
         <v>82</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>240</v>
+        <v>74</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>448</v>
+        <v>74</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>449</v>
+        <v>87</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>450</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>451</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>74</v>
@@ -9887,20 +9826,18 @@
         <v>74</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>236</v>
+        <v>90</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>237</v>
+        <v>91</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>238</v>
+        <v>92</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>446</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>74</v>
       </c>
@@ -9936,46 +9873,44 @@
         <v>74</v>
       </c>
       <c r="AA76" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AC76" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD76" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>442</v>
+        <v>97</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>240</v>
+        <v>74</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>241</v>
+        <v>98</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>242</v>
+        <v>87</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>243</v>
+        <v>74</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>452</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
         <v>74</v>
       </c>
@@ -9993,22 +9928,22 @@
         <v>74</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>453</v>
+        <v>207</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>455</v>
+        <v>432</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>74</v>
@@ -10057,7 +9992,7 @@
         <v>74</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>75</v>
@@ -10066,21 +10001,21 @@
         <v>82</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>240</v>
+        <v>74</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>448</v>
+        <v>79</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>450</v>
+        <v>436</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>456</v>
+        <v>437</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10097,30 +10032,30 @@
         <v>74</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>117</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>457</v>
+        <v>219</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>458</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="M78" s="2"/>
       <c r="N78" t="s" s="2">
-        <v>459</v>
+        <v>440</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="P78" s="2"/>
+      <c r="P78" t="s" s="2">
+        <v>441</v>
+      </c>
       <c r="Q78" t="s" s="2">
         <v>74</v>
       </c>
@@ -10140,29 +10075,31 @@
         <v>74</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>74</v>
+        <v>222</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>74</v>
+        <v>442</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>74</v>
+        <v>443</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AA78" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AB78" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AC78" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD78" t="s" s="2">
-        <v>447</v>
+        <v>74</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>75</v>
@@ -10177,19 +10114,17 @@
         <v>79</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>461</v>
+        <v>446</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>462</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
         <v>74</v>
       </c>
@@ -10207,22 +10142,20 @@
         <v>74</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>457</v>
+        <v>83</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>465</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="M79" s="2"/>
       <c r="N79" t="s" s="2">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>74</v>
@@ -10271,7 +10204,7 @@
         <v>74</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>75</v>
@@ -10280,21 +10213,21 @@
         <v>82</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>240</v>
+        <v>74</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>467</v>
+        <v>79</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>122</v>
+        <v>453</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10314,25 +10247,27 @@
         <v>74</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>83</v>
+        <v>336</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>84</v>
+        <v>455</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>85</v>
+        <v>456</v>
       </c>
       <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
+      <c r="N80" t="s" s="2">
+        <v>457</v>
+      </c>
       <c r="O80" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P80" s="2"/>
       <c r="Q80" t="s" s="2">
-        <v>74</v>
+        <v>458</v>
       </c>
       <c r="R80" t="s" s="2">
         <v>74</v>
@@ -10374,7 +10309,7 @@
         <v>74</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>86</v>
+        <v>459</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>75</v>
@@ -10383,32 +10318,32 @@
         <v>82</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>74</v>
+        <v>460</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>87</v>
+        <v>461</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>74</v>
+        <v>453</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>74</v>
@@ -10417,21 +10352,23 @@
         <v>74</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>90</v>
+        <v>219</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>91</v>
+        <v>463</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>92</v>
+        <v>464</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N81" s="2"/>
+        <v>465</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>466</v>
+      </c>
       <c r="O81" t="s" s="2">
         <v>74</v>
       </c>
@@ -10467,42 +10404,42 @@
         <v>74</v>
       </c>
       <c r="AA81" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AC81" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD81" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>97</v>
+        <v>467</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>87</v>
+        <v>468</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>74</v>
+        <v>453</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10525,13 +10462,13 @@
         <v>117</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>472</v>
+        <v>425</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -10582,7 +10519,7 @@
         <v>74</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>75</v>
@@ -10597,7 +10534,7 @@
         <v>79</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>74</v>
@@ -10605,7 +10542,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10708,7 +10645,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10813,7 +10750,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10836,19 +10773,19 @@
         <v>117</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>193</v>
+        <v>432</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>194</v>
+        <v>433</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>74</v>
@@ -10897,7 +10834,7 @@
         <v>74</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>195</v>
+        <v>434</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>75</v>
@@ -10912,15 +10849,15 @@
         <v>79</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>196</v>
+        <v>435</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>197</v>
+        <v>436</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10943,23 +10880,23 @@
         <v>117</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>200</v>
+        <v>438</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>201</v>
+        <v>439</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" t="s" s="2">
-        <v>202</v>
+        <v>440</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P86" t="s" s="2">
-        <v>203</v>
+        <v>441</v>
       </c>
       <c r="Q86" t="s" s="2">
         <v>74</v>
@@ -10980,13 +10917,13 @@
         <v>74</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>205</v>
+        <v>442</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>206</v>
+        <v>443</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>74</v>
@@ -11004,7 +10941,7 @@
         <v>74</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>207</v>
+        <v>444</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>75</v>
@@ -11019,15 +10956,15 @@
         <v>79</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>208</v>
+        <v>445</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>209</v>
+        <v>446</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11053,14 +10990,14 @@
         <v>83</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" t="s" s="2">
-        <v>213</v>
+        <v>450</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>74</v>
@@ -11109,7 +11046,7 @@
         <v>74</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>215</v>
+        <v>451</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>75</v>
@@ -11124,15 +11061,15 @@
         <v>79</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>216</v>
+        <v>452</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>217</v>
+        <v>453</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11155,24 +11092,24 @@
         <v>117</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>219</v>
+        <v>336</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" t="s" s="2">
-        <v>222</v>
+        <v>457</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P88" s="2"/>
       <c r="Q88" t="s" s="2">
-        <v>223</v>
+        <v>458</v>
       </c>
       <c r="R88" t="s" s="2">
         <v>74</v>
@@ -11214,7 +11151,7 @@
         <v>74</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>224</v>
+        <v>459</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>75</v>
@@ -11223,21 +11160,21 @@
         <v>82</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>225</v>
+        <v>460</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>226</v>
+        <v>461</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>217</v>
+        <v>453</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11260,19 +11197,19 @@
         <v>117</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>487</v>
+        <v>463</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>488</v>
+        <v>464</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>230</v>
+        <v>465</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>231</v>
+        <v>466</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>74</v>
@@ -11321,7 +11258,7 @@
         <v>74</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>233</v>
+        <v>467</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>75</v>
@@ -11336,17 +11273,19 @@
         <v>79</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>234</v>
+        <v>468</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>217</v>
+        <v>453</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="B90" s="2"/>
+        <v>409</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>484</v>
+      </c>
       <c r="C90" t="s" s="2">
         <v>74</v>
       </c>
@@ -11364,19 +11303,23 @@
         <v>74</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>472</v>
+        <v>185</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>490</v>
+        <v>186</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>412</v>
+      </c>
       <c r="O90" t="s" s="2">
         <v>74</v>
       </c>
@@ -11424,7 +11367,7 @@
         <v>74</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>491</v>
+        <v>409</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>75</v>
@@ -11433,23 +11376,25 @@
         <v>82</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>74</v>
+        <v>189</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>79</v>
+        <v>190</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>492</v>
+        <v>191</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>74</v>
+        <v>192</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="B91" s="2"/>
+        <v>409</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>485</v>
+      </c>
       <c r="C91" t="s" s="2">
         <v>74</v>
       </c>
@@ -11470,16 +11415,20 @@
         <v>74</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>83</v>
+        <v>406</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>84</v>
+        <v>407</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="M91" s="2"/>
-      <c r="N91" s="2"/>
+        <v>407</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>412</v>
+      </c>
       <c r="O91" t="s" s="2">
         <v>74</v>
       </c>
@@ -11527,7 +11476,7 @@
         <v>74</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>86</v>
+        <v>409</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>75</v>
@@ -11536,32 +11485,32 @@
         <v>82</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>74</v>
+        <v>189</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>74</v>
+        <v>401</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>87</v>
+        <v>402</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>74</v>
+        <v>403</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>74</v>
@@ -11573,18 +11522,20 @@
         <v>74</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>90</v>
+        <v>487</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>91</v>
+        <v>488</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>92</v>
+        <v>417</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N92" s="2"/>
+        <v>489</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>490</v>
+      </c>
       <c r="O92" t="s" s="2">
         <v>74</v>
       </c>
@@ -11620,42 +11571,42 @@
         <v>74</v>
       </c>
       <c r="AA92" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AB92" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AC92" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD92" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>97</v>
+        <v>486</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>74</v>
+        <v>189</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>98</v>
+        <v>420</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>87</v>
+        <v>421</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>74</v>
+        <v>122</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -11675,22 +11626,22 @@
         <v>74</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>191</v>
+        <v>406</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>490</v>
+        <v>407</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>490</v>
+        <v>407</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>193</v>
+        <v>408</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>194</v>
+        <v>492</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>74</v>
@@ -11739,7 +11690,7 @@
         <v>74</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>195</v>
+        <v>491</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>75</v>
@@ -11748,21 +11699,21 @@
         <v>82</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>74</v>
+        <v>189</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>79</v>
+        <v>401</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>196</v>
+        <v>402</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>197</v>
+        <v>403</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -11779,30 +11730,30 @@
         <v>74</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>199</v>
+        <v>406</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>200</v>
+        <v>407</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="M94" s="2"/>
+        <v>407</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>408</v>
+      </c>
       <c r="N94" t="s" s="2">
-        <v>202</v>
+        <v>494</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="P94" t="s" s="2">
-        <v>203</v>
-      </c>
+      <c r="P94" s="2"/>
       <c r="Q94" t="s" s="2">
         <v>74</v>
       </c>
@@ -11822,13 +11773,13 @@
         <v>74</v>
       </c>
       <c r="W94" t="s" s="2">
-        <v>204</v>
+        <v>74</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>205</v>
+        <v>74</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>206</v>
+        <v>74</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>74</v>
@@ -11846,7 +11797,7 @@
         <v>74</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>207</v>
+        <v>493</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>75</v>
@@ -11855,872 +11806,16 @@
         <v>82</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>74</v>
+        <v>189</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>79</v>
+        <v>401</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>208</v>
+        <v>402</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="B95" s="2"/>
-      <c r="C95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D95" s="2"/>
-      <c r="E95" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F95" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="J95" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K95" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="M95" s="2"/>
-      <c r="N95" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P95" s="2"/>
-      <c r="Q95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="B96" s="2"/>
-      <c r="C96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D96" s="2"/>
-      <c r="E96" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F96" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="J96" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="M96" s="2"/>
-      <c r="N96" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P96" s="2"/>
-      <c r="Q96" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="R96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="B97" s="2"/>
-      <c r="C97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D97" s="2"/>
-      <c r="E97" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="J97" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="K97" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P97" s="2"/>
-      <c r="Q97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="B98" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="C98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D98" s="2"/>
-      <c r="E98" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F98" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J98" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="K98" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="O98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P98" s="2"/>
-      <c r="Q98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE98" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="AF98" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG98" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH98" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="AI98" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="AJ98" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="AK98" t="s" s="2">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="B99" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="C99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D99" s="2"/>
-      <c r="E99" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F99" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J99" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="K99" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P99" s="2"/>
-      <c r="Q99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE99" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="AF99" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG99" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH99" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="AI99" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="AJ99" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="B100" s="2"/>
-      <c r="C100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D100" s="2"/>
-      <c r="E100" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F100" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J100" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="K100" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="O100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P100" s="2"/>
-      <c r="Q100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE100" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="AF100" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG100" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH100" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="AJ100" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="AK100" t="s" s="2">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="B101" s="2"/>
-      <c r="C101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D101" s="2"/>
-      <c r="E101" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F101" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J101" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="K101" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="O101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P101" s="2"/>
-      <c r="Q101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE101" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="AF101" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG101" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH101" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="AI101" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="AJ101" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="AK101" t="s" s="2">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="B102" s="2"/>
-      <c r="C102" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D102" s="2"/>
-      <c r="E102" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G102" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H102" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I102" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J102" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="K102" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="O102" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P102" s="2"/>
-      <c r="Q102" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R102" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S102" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T102" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U102" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V102" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W102" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X102" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y102" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z102" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA102" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB102" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD102" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE102" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="AF102" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH102" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="AI102" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="AJ102" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="AK102" t="s" s="2">
-        <v>450</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage-injection.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3164" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3164" uniqueCount="493">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T11:02:51+00:00</t>
+    <t>2022-09-07T12:57:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -595,13 +595,10 @@
 </t>
   </si>
   <si>
-    <t>Set of values bounded by low and high</t>
-  </si>
-  <si>
-    <t>A set of ordered Quantities defined by a low and high limit.</t>
-  </si>
-  <si>
-    <t>The stated low and high value are assumed to have arbitrarily high precision when it comes to determining which values are in the range. I.e. 1.99 is not in the range 2 -&gt; 3.</t>
+    <t>薬剤の単位指定された上限下限量</t>
+  </si>
+  <si>
+    <t>薬剤の上限量、下限量の範囲を持っている。単位指定された数量を割り当てている。</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -907,8 +904,8 @@
     <t>「頓用」指示</t>
   </si>
   <si>
-    <t>JP Coreでは頓用型の用法を指定する場合に”true”を指定し、そのコードを指定する場合は用法コードとして指定する。
-Medication(薬剤)が必要なときに指定された量とスケジュールのみで内服するか（Booleanで選択される）、内服する前提条件(CodeableConcept)を示している。</t>
+    <t>【JP Core仕様】頓用型の用法を指定する場合に”true”を指定し、そのコードを指定する場合は用法コードとして指定する。
+Medication(薬剤)が必要なときに指定された量とスケジュールのみで投薬するか（Booleanで選択される）、投薬する前提条件はTiming.Code(CodeableConcept)を示している。</t>
   </si>
   <si>
     <t>Can express "as needed" without a reason by setting the Boolean = True.  In this case the CodeableConcept is not populated.  Or you can express "as needed" with a reason by including the CodeableConcept.  In this case the Boolean is assumed to be True.  If you set the Boolean to False, then the dose is given according to the schedule and is not "prn" or "as needed".</t>
@@ -1277,10 +1274,10 @@
 </t>
   </si>
   <si>
-    <t>薬剤に関する数量と単位を定めたデータイプ</t>
-  </si>
-  <si>
-    <t>薬剤に関する数量と単位を定めている。【JP Core仕様】単位についてはMERIT9医薬品単位略号の利用を推進している。(**SHOULD**)</t>
+    <t>薬剤に関する数量と単位を定めた簡易データイプ</t>
+  </si>
+  <si>
+    <t>薬剤に関する簡易的な数量と単位を定めている。ValueおよびCodeを必須とし、comparatorは記述不可。単位についてはMERIT9医薬品単位略号の利用を推進している。(**SHOULD**)</t>
   </si>
   <si>
     <t>Dosage.doseAndRate.rate[x]</t>
@@ -1310,7 +1307,7 @@
     <t>単位時間内での薬剤の容量（体積）</t>
   </si>
   <si>
-    <t>A relationship of two Quantity values - expressed as a numerator and a denominator.</t>
+    <t>単位時間あたり薬剤の投与量</t>
   </si>
   <si>
     <t>【JP Core仕様】単位時間内での薬剤の容量（体積）、すなわち投与速度を記述する。単位はUCUMを使用する。</t>
@@ -1527,10 +1524,7 @@
 </t>
   </si>
   <si>
-    <t>A ratio of two Quantity values - a numerator and a denominator</t>
-  </si>
-  <si>
-    <t>The Ratio datatype should only be used to express a relationship of two numbers if the relationship cannot be suitably expressed using a Quantity and a common unit.  Where the denominator value is known to be fixed to "1", Quantity should be used instead of Ratio.</t>
+    <t>単位時間あたり薬剤の投与量について薬剤単位をバインディングした型である。</t>
   </si>
   <si>
     <t>The maximum total quantity of a therapeutic substance that may be administered to a subject over the period of time.  For example, 1000mg in 24 hours.</t>
@@ -1871,7 +1865,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="59.74609375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="52.47265625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -4249,10 +4243,10 @@
         <v>186</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4311,21 +4305,21 @@
         <v>82</v>
       </c>
       <c r="AH23" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AI23" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="AI23" t="s" s="2">
+      <c r="AJ23" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="AJ23" t="s" s="2">
+      <c r="AK23" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>192</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4348,19 +4342,19 @@
         <v>117</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>74</v>
@@ -4409,7 +4403,7 @@
         <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
@@ -4424,7 +4418,7 @@
         <v>79</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>74</v>
@@ -4432,7 +4426,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4455,16 +4449,16 @@
         <v>117</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4514,7 +4508,7 @@
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
@@ -4529,7 +4523,7 @@
         <v>79</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>74</v>
@@ -4537,7 +4531,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4560,19 +4554,19 @@
         <v>117</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>74</v>
@@ -4621,7 +4615,7 @@
         <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>75</v>
@@ -4636,7 +4630,7 @@
         <v>79</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>74</v>
@@ -4644,7 +4638,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4667,19 +4661,19 @@
         <v>117</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L27" t="s" s="2">
-        <v>216</v>
-      </c>
       <c r="M27" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>74</v>
@@ -4728,7 +4722,7 @@
         <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
@@ -4743,7 +4737,7 @@
         <v>79</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>74</v>
@@ -4751,7 +4745,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4774,13 +4768,13 @@
         <v>117</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>149</v>
@@ -4809,31 +4803,31 @@
         <v>74</v>
       </c>
       <c r="W28" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="X28" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="X28" t="s" s="2">
+      <c r="Y28" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="Y28" t="s" s="2">
+      <c r="Z28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE28" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
@@ -4848,7 +4842,7 @@
         <v>79</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>74</v>
@@ -4856,7 +4850,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4879,68 +4873,68 @@
         <v>117</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P29" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="Q29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE29" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="Q29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
@@ -4955,7 +4949,7 @@
         <v>79</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>74</v>
@@ -4963,7 +4957,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4986,16 +4980,16 @@
         <v>117</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="L30" t="s" s="2">
-        <v>235</v>
-      </c>
       <c r="M30" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5045,7 +5039,7 @@
         <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
@@ -5060,7 +5054,7 @@
         <v>79</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>74</v>
@@ -5068,7 +5062,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5091,16 +5085,16 @@
         <v>117</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5150,7 +5144,7 @@
         <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
@@ -5165,7 +5159,7 @@
         <v>79</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>74</v>
@@ -5173,7 +5167,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5196,16 +5190,16 @@
         <v>117</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5255,7 +5249,7 @@
         <v>74</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
@@ -5270,7 +5264,7 @@
         <v>79</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>74</v>
@@ -5278,7 +5272,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5301,13 +5295,13 @@
         <v>117</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="K33" t="s" s="2">
-        <v>220</v>
-      </c>
       <c r="L33" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>149</v>
@@ -5336,14 +5330,14 @@
         <v>74</v>
       </c>
       <c r="W33" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="X33" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="X33" t="s" s="2">
+      <c r="Y33" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="Y33" t="s" s="2">
-        <v>224</v>
-      </c>
       <c r="Z33" t="s" s="2">
         <v>74</v>
       </c>
@@ -5360,7 +5354,7 @@
         <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
@@ -5375,7 +5369,7 @@
         <v>79</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>74</v>
@@ -5383,7 +5377,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5406,16 +5400,16 @@
         <v>117</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5441,29 +5435,29 @@
         <v>74</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="X34" s="2"/>
       <c r="Y34" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE34" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
@@ -5486,7 +5480,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5509,16 +5503,16 @@
         <v>117</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5568,7 +5562,7 @@
         <v>74</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
@@ -5591,7 +5585,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5614,19 +5608,19 @@
         <v>117</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>74</v>
@@ -5651,31 +5645,31 @@
         <v>74</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="X36" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="Y36" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="Y36" t="s" s="2">
+      <c r="Z36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE36" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
@@ -5690,7 +5684,7 @@
         <v>79</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>74</v>
@@ -5698,7 +5692,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5721,16 +5715,16 @@
         <v>117</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="L37" t="s" s="2">
-        <v>274</v>
-      </c>
       <c r="M37" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5780,7 +5774,7 @@
         <v>74</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
@@ -5795,7 +5789,7 @@
         <v>79</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>74</v>
@@ -5803,7 +5797,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5829,13 +5823,13 @@
         <v>138</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5865,25 +5859,25 @@
       </c>
       <c r="X38" s="2"/>
       <c r="Y38" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE38" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>75</v>
@@ -5898,7 +5892,7 @@
         <v>79</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>74</v>
@@ -5906,7 +5900,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5929,16 +5923,16 @@
         <v>117</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -5988,7 +5982,7 @@
         <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
@@ -6003,15 +5997,15 @@
         <v>79</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AK39" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>290</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6037,16 +6031,16 @@
         <v>138</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>74</v>
@@ -6075,7 +6069,7 @@
       </c>
       <c r="X40" s="2"/>
       <c r="Y40" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>74</v>
@@ -6093,7 +6087,7 @@
         <v>74</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
@@ -6108,15 +6102,15 @@
         <v>79</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AK40" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>298</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6142,16 +6136,16 @@
         <v>138</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="L41" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>74</v>
@@ -6180,7 +6174,7 @@
       </c>
       <c r="X41" s="2"/>
       <c r="Y41" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>74</v>
@@ -6198,7 +6192,7 @@
         <v>74</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>75</v>
@@ -6213,15 +6207,15 @@
         <v>79</v>
       </c>
       <c r="AJ41" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AK41" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>305</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6247,16 +6241,16 @@
         <v>138</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="L42" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>74</v>
@@ -6281,14 +6275,14 @@
         <v>74</v>
       </c>
       <c r="W42" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="X42" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="X42" t="s" s="2">
+      <c r="Y42" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="Y42" t="s" s="2">
-        <v>312</v>
-      </c>
       <c r="Z42" t="s" s="2">
         <v>74</v>
       </c>
@@ -6305,7 +6299,7 @@
         <v>74</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>75</v>
@@ -6320,15 +6314,15 @@
         <v>79</v>
       </c>
       <c r="AJ42" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AK42" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>314</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6431,7 +6425,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6536,7 +6530,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6559,19 +6553,19 @@
         <v>117</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>74</v>
@@ -6608,7 +6602,7 @@
         <v>74</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AB45" s="2"/>
       <c r="AC45" t="s" s="2">
@@ -6618,7 +6612,7 @@
         <v>96</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>75</v>
@@ -6633,18 +6627,18 @@
         <v>79</v>
       </c>
       <c r="AJ45" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AK45" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>326</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C46" t="s" s="2">
         <v>74</v>
@@ -6666,19 +6660,19 @@
         <v>117</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>74</v>
@@ -6707,7 +6701,7 @@
       </c>
       <c r="X46" s="2"/>
       <c r="Y46" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>74</v>
@@ -6725,7 +6719,7 @@
         <v>74</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>75</v>
@@ -6740,15 +6734,15 @@
         <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AK46" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>326</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6851,7 +6845,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6956,7 +6950,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6979,68 +6973,68 @@
         <v>117</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE49" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="R49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>75</v>
@@ -7055,15 +7049,15 @@
         <v>79</v>
       </c>
       <c r="AJ49" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AK49" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>344</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7089,13 +7083,13 @@
         <v>83</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7145,7 +7139,7 @@
         <v>74</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>75</v>
@@ -7160,15 +7154,15 @@
         <v>79</v>
       </c>
       <c r="AJ50" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AK50" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>351</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7191,17 +7185,17 @@
         <v>117</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>74</v>
@@ -7250,7 +7244,7 @@
         <v>74</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>75</v>
@@ -7265,15 +7259,15 @@
         <v>79</v>
       </c>
       <c r="AJ51" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AK51" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>358</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7299,14 +7293,14 @@
         <v>83</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>74</v>
@@ -7355,7 +7349,7 @@
         <v>74</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>75</v>
@@ -7370,15 +7364,15 @@
         <v>79</v>
       </c>
       <c r="AJ52" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AK52" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>365</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7401,19 +7395,19 @@
         <v>117</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>74</v>
@@ -7462,7 +7456,7 @@
         <v>74</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>75</v>
@@ -7477,18 +7471,18 @@
         <v>79</v>
       </c>
       <c r="AJ53" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AK53" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>373</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C54" t="s" s="2">
         <v>74</v>
@@ -7510,19 +7504,19 @@
         <v>117</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="L54" t="s" s="2">
-        <v>376</v>
-      </c>
       <c r="M54" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="N54" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>74</v>
@@ -7551,7 +7545,7 @@
       </c>
       <c r="X54" s="2"/>
       <c r="Y54" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>74</v>
@@ -7569,7 +7563,7 @@
         <v>74</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>75</v>
@@ -7584,15 +7578,15 @@
         <v>79</v>
       </c>
       <c r="AJ54" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AK54" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>326</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7695,7 +7689,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7800,7 +7794,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7823,26 +7817,26 @@
         <v>117</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="R57" t="s" s="2">
         <v>74</v>
@@ -7884,7 +7878,7 @@
         <v>74</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>75</v>
@@ -7899,15 +7893,15 @@
         <v>79</v>
       </c>
       <c r="AJ57" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AK57" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>344</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7933,13 +7927,13 @@
         <v>83</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -7989,7 +7983,7 @@
         <v>74</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>75</v>
@@ -8004,15 +7998,15 @@
         <v>79</v>
       </c>
       <c r="AJ58" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AK58" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>351</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8035,17 +8029,17 @@
         <v>117</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>74</v>
@@ -8094,7 +8088,7 @@
         <v>74</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>75</v>
@@ -8109,15 +8103,15 @@
         <v>79</v>
       </c>
       <c r="AJ59" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AK59" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>358</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8143,14 +8137,14 @@
         <v>83</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>74</v>
@@ -8199,7 +8193,7 @@
         <v>74</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>75</v>
@@ -8214,15 +8208,15 @@
         <v>79</v>
       </c>
       <c r="AJ60" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AK60" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>365</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8245,19 +8239,19 @@
         <v>117</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>74</v>
@@ -8306,7 +8300,7 @@
         <v>74</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>75</v>
@@ -8321,15 +8315,15 @@
         <v>79</v>
       </c>
       <c r="AJ61" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AK61" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>373</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8413,7 +8407,7 @@
         <v>74</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>75</v>
@@ -8428,15 +8422,15 @@
         <v>79</v>
       </c>
       <c r="AJ62" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AK62" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>382</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8462,10 +8456,10 @@
         <v>168</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8516,7 +8510,7 @@
         <v>74</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>75</v>
@@ -8534,12 +8528,12 @@
         <v>74</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8642,7 +8636,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8747,7 +8741,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8773,16 +8767,16 @@
         <v>138</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="L66" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>74</v>
@@ -8811,7 +8805,7 @@
       </c>
       <c r="X66" s="2"/>
       <c r="Y66" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>74</v>
@@ -8829,7 +8823,7 @@
         <v>74</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>75</v>
@@ -8847,12 +8841,12 @@
         <v>74</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8875,19 +8869,19 @@
         <v>74</v>
       </c>
       <c r="J67" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="K67" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="K67" t="s" s="2">
+      <c r="L67" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="L67" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="M67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>74</v>
@@ -8931,36 +8925,36 @@
         <v>74</v>
       </c>
       <c r="AD67" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AI67" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="AE67" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AI67" t="s" s="2">
+      <c r="AJ67" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="AJ67" t="s" s="2">
+      <c r="AK67" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>403</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C68" t="s" s="2">
         <v>74</v>
@@ -8988,13 +8982,13 @@
         <v>186</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="M68" t="s" s="2">
-        <v>188</v>
-      </c>
       <c r="N68" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>74</v>
@@ -9043,7 +9037,7 @@
         <v>74</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>75</v>
@@ -9052,24 +9046,24 @@
         <v>82</v>
       </c>
       <c r="AH68" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AI68" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="AI68" t="s" s="2">
+      <c r="AJ68" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="AJ68" t="s" s="2">
+      <c r="AK68" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>192</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C69" t="s" s="2">
         <v>74</v>
@@ -9091,19 +9085,19 @@
         <v>74</v>
       </c>
       <c r="J69" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="K69" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="K69" t="s" s="2">
+      <c r="L69" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="L69" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>408</v>
-      </c>
       <c r="N69" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>74</v>
@@ -9152,7 +9146,7 @@
         <v>74</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>75</v>
@@ -9161,21 +9155,21 @@
         <v>82</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AI69" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="AJ69" t="s" s="2">
+      <c r="AK69" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>403</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9198,19 +9192,19 @@
         <v>117</v>
       </c>
       <c r="J70" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="K70" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>74</v>
@@ -9254,10 +9248,10 @@
         <v>74</v>
       </c>
       <c r="AD70" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>75</v>
@@ -9272,18 +9266,18 @@
         <v>79</v>
       </c>
       <c r="AJ70" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AK70" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>414</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C71" t="s" s="2">
         <v>74</v>
@@ -9305,19 +9299,19 @@
         <v>74</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>74</v>
@@ -9366,7 +9360,7 @@
         <v>74</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>75</v>
@@ -9375,13 +9369,13 @@
         <v>82</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AI71" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>122</v>
@@ -9389,7 +9383,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9492,7 +9486,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9597,7 +9591,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9620,13 +9614,13 @@
         <v>117</v>
       </c>
       <c r="J74" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="K74" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="K74" t="s" s="2">
-        <v>426</v>
-      </c>
       <c r="L74" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -9677,7 +9671,7 @@
         <v>74</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>75</v>
@@ -9692,7 +9686,7 @@
         <v>79</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>74</v>
@@ -9700,7 +9694,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9803,7 +9797,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9908,7 +9902,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9931,19 +9925,19 @@
         <v>117</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="M77" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="N77" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>74</v>
@@ -9992,7 +9986,7 @@
         <v>74</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>75</v>
@@ -10007,15 +10001,15 @@
         <v>79</v>
       </c>
       <c r="AJ77" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AK77" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>436</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10038,68 +10032,68 @@
         <v>117</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P78" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="O78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P78" t="s" s="2">
+      <c r="Q78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="X78" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="Q78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="X78" t="s" s="2">
+      <c r="Y78" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="Y78" t="s" s="2">
+      <c r="Z78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE78" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>75</v>
@@ -10114,15 +10108,15 @@
         <v>79</v>
       </c>
       <c r="AJ78" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AK78" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>446</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10148,14 +10142,14 @@
         <v>83</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>74</v>
@@ -10204,7 +10198,7 @@
         <v>74</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>75</v>
@@ -10219,15 +10213,15 @@
         <v>79</v>
       </c>
       <c r="AJ79" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AK79" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>453</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10250,89 +10244,89 @@
         <v>117</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P80" s="2"/>
       <c r="Q80" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE80" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="R80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE80" t="s" s="2">
+      <c r="AF80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH80" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10355,19 +10349,19 @@
         <v>117</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="M81" t="s" s="2">
+      <c r="N81" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>74</v>
@@ -10416,7 +10410,7 @@
         <v>74</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>75</v>
@@ -10431,15 +10425,15 @@
         <v>79</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10462,13 +10456,13 @@
         <v>117</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -10519,7 +10513,7 @@
         <v>74</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>75</v>
@@ -10534,7 +10528,7 @@
         <v>79</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>74</v>
@@ -10542,7 +10536,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10645,7 +10639,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10750,7 +10744,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10773,19 +10767,19 @@
         <v>117</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="M85" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="N85" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>74</v>
@@ -10834,7 +10828,7 @@
         <v>74</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>75</v>
@@ -10849,15 +10843,15 @@
         <v>79</v>
       </c>
       <c r="AJ85" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AK85" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>436</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10880,68 +10874,68 @@
         <v>117</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P86" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="O86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P86" t="s" s="2">
+      <c r="Q86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="X86" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="Q86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="X86" t="s" s="2">
+      <c r="Y86" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="Y86" t="s" s="2">
+      <c r="Z86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE86" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>75</v>
@@ -10956,15 +10950,15 @@
         <v>79</v>
       </c>
       <c r="AJ86" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AK86" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>446</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -10990,14 +10984,14 @@
         <v>83</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>74</v>
@@ -11046,7 +11040,7 @@
         <v>74</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>75</v>
@@ -11061,15 +11055,15 @@
         <v>79</v>
       </c>
       <c r="AJ87" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AK87" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>453</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11092,89 +11086,89 @@
         <v>117</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="L88" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>482</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P88" s="2"/>
       <c r="Q88" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE88" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="R88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE88" t="s" s="2">
+      <c r="AF88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH88" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11197,19 +11191,19 @@
         <v>117</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="L89" t="s" s="2">
+      <c r="M89" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="M89" t="s" s="2">
+      <c r="N89" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>74</v>
@@ -11258,7 +11252,7 @@
         <v>74</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>75</v>
@@ -11273,18 +11267,18 @@
         <v>79</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C90" t="s" s="2">
         <v>74</v>
@@ -11312,13 +11306,13 @@
         <v>186</v>
       </c>
       <c r="L90" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="M90" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="M90" t="s" s="2">
-        <v>188</v>
-      </c>
       <c r="N90" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>74</v>
@@ -11367,7 +11361,7 @@
         <v>74</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>75</v>
@@ -11376,24 +11370,24 @@
         <v>82</v>
       </c>
       <c r="AH90" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AI90" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="AI90" t="s" s="2">
+      <c r="AJ90" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="AJ90" t="s" s="2">
+      <c r="AK90" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>192</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C91" t="s" s="2">
         <v>74</v>
@@ -11415,19 +11409,19 @@
         <v>74</v>
       </c>
       <c r="J91" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="K91" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="K91" t="s" s="2">
+      <c r="L91" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="M91" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="L91" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>408</v>
-      </c>
       <c r="N91" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>74</v>
@@ -11476,7 +11470,7 @@
         <v>74</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>75</v>
@@ -11485,21 +11479,21 @@
         <v>82</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AI91" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="AJ91" t="s" s="2">
+      <c r="AK91" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>403</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11522,19 +11516,19 @@
         <v>74</v>
       </c>
       <c r="J92" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="M92" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="K92" t="s" s="2">
+      <c r="N92" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>490</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>74</v>
@@ -11583,7 +11577,7 @@
         <v>74</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>75</v>
@@ -11592,13 +11586,13 @@
         <v>82</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AI92" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>122</v>
@@ -11606,7 +11600,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -11629,19 +11623,19 @@
         <v>74</v>
       </c>
       <c r="J93" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="K93" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="K93" t="s" s="2">
+      <c r="L93" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="M93" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="L93" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>408</v>
-      </c>
       <c r="N93" t="s" s="2">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>74</v>
@@ -11690,7 +11684,7 @@
         <v>74</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>75</v>
@@ -11699,21 +11693,21 @@
         <v>82</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AI93" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="AJ93" t="s" s="2">
+      <c r="AK93" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>403</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -11736,19 +11730,19 @@
         <v>74</v>
       </c>
       <c r="J94" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="K94" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="K94" t="s" s="2">
+      <c r="L94" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="M94" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="L94" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>408</v>
-      </c>
       <c r="N94" t="s" s="2">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>74</v>
@@ -11797,7 +11791,7 @@
         <v>74</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>75</v>
@@ -11806,16 +11800,16 @@
         <v>82</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AI94" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="AJ94" t="s" s="2">
+      <c r="AK94" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>403</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage-injection.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage-injection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T12:57:45+00:00</t>
+    <t>2022-09-07T13:25:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage-injection.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage-injection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T13:25:36+00:00</t>
+    <t>2022-09-07T14:04:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage-injection.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage-injection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T14:04:03+00:00</t>
+    <t>2022-09-09T00:36:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage-injection.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage-injection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-09T00:36:28+00:00</t>
+    <t>2022-09-09T12:25:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage-injection.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage-injection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-09T12:25:43+00:00</t>
+    <t>2022-09-12T18:58:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage-injection.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage-injection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-12T18:58:52+00:00</t>
+    <t>2022-09-12T21:58:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage-injection.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3164" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3061" uniqueCount="506">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-12T21:58:47+00:00</t>
+    <t>2022-09-14T09:18:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationDosage</t>
+    <t>http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationDosageBase</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -1241,43 +1241,43 @@
 </t>
   </si>
   <si>
+    <t>A fixed quantity (no comparator)</t>
+  </si>
+  <si>
+    <t>The comparator is not used on a SimpleQuantity</t>
+  </si>
+  <si>
+    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
+  </si>
+  <si>
+    <t>The amount of therapeutic or other substance given at one administration event.</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
+  </si>
+  <si>
+    <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
+  </si>
+  <si>
+    <t>SN (see also Range) or CQ</t>
+  </si>
+  <si>
+    <t>doseQuantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationSimpleQuantity}
+</t>
+  </si>
+  <si>
     <t>1回投与量（体積）</t>
   </si>
   <si>
     <t>この量は指定された薬剤の量を指定するものであって、各有効成分の量を指定するものではない。各成分の量はMedication resourceで伝えることができる。たとえば、有効成分が375mgである錠剤を1錠投与することを伝えたい場合、Medication resourceを利用して、XYZ成分が375mg含有しているという錠剤であることを文書化することができる。あるいは1回投与量が375mgであることを伝えるのであれば、Medication resourceをつかって単にそれが錠剤であることを示せばよい。もし、ドーパミンの静注を例に挙げて、400mgのドーパミンを500mlの注射溶液に混ぜて使うことを伝えたいのであれば、それをすべてMedication resourceで伝えることができる。もし、投与について即時に伝達することを意図していない（たとえば投与速度が示されていたり、投与時期に範囲があるような場合）のであれば、たとえば1回500mlを4時間以上かけて投与する予定を伝える場合にもMedication resourceで伝えることができる。  
 【JP Core仕様】1回の投与量（体積）を指定する。単位はUCUMを使用する。</t>
-  </si>
-  <si>
-    <t>The amount of therapeutic or other substance given at one administration event.</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
-  </si>
-  <si>
-    <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
-  </si>
-  <si>
-    <t>SN (see also Range) or CQ</t>
-  </si>
-  <si>
-    <t>doseRange</t>
-  </si>
-  <si>
-    <t>doseQuantity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationSimpleQuantity}
-</t>
-  </si>
-  <si>
-    <t>薬剤に関する数量と単位を定めた簡易データイプ</t>
-  </si>
-  <si>
-    <t>薬剤に関する簡易的な数量と単位を定めている。ValueおよびCodeを必須とし、comparatorは記述不可。単位についてはMERIT9医薬品単位略号の利用を推進している。(**SHOULD**)</t>
   </si>
   <si>
     <t>Dosage.doseAndRate.rate[x]</t>
@@ -1304,6 +1304,10 @@
     <t>rateRatio</t>
   </si>
   <si>
+    <t xml:space="preserve">Ratio {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRatio}
+</t>
+  </si>
+  <si>
     <t>単位時間内での薬剤の容量（体積）</t>
   </si>
   <si>
@@ -1332,44 +1336,179 @@
     <t>Dosage.doseAndRate.rate[x].numerator</t>
   </si>
   <si>
+    <t xml:space="preserve">Quantity {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationQuantity}
+</t>
+  </si>
+  <si>
+    <t>投与量（体積）</t>
+  </si>
+  <si>
+    <t>薬剤に関する数量と単位を定めている。ValueおよびCodeを必須としている。単位についてはMERIT9医薬品単位略号の利用を推進している。(**SHOULD**)</t>
+  </si>
+  <si>
+    <t>Ratio.numerator</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rate[x].numerator.id</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rate[x].numerator.extension</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rate[x].numerator.value</t>
+  </si>
+  <si>
+    <t>暗示された精度については常に尊重すべきである。貨幣計算では制度に関する独自のルールがある（会計についての標準的な教科書を参照すること）。</t>
+  </si>
+  <si>
+    <t>Precision is handled implicitly in almost all cases of measurement.</t>
+  </si>
+  <si>
+    <t>Quantity.value</t>
+  </si>
+  <si>
+    <t>PQ.value, CO.value, MO.value, IVL.high or IVL.low depending on the value</t>
+  </si>
+  <si>
+    <t>SN.2  / CQ - N/A</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rate[x].numerator.comparator</t>
+  </si>
+  <si>
+    <t>&lt; | &lt;= | &gt;= | &gt; - 値の解釈法</t>
+  </si>
+  <si>
+    <t>実際の値が計測して示された値よりも大きいのか小さいのかなど、値がどのように解釈され、表現されるのかを示している。たとえば、もし、comparatorエレメントが"&lt;"であれば、実際の値は示された値よりも小さい(&lt;)。</t>
+  </si>
+  <si>
+    <t>計測法に制限があって値が&lt;5ug/L や &gt;400mg/L として示されるような場合でも値を扱えるようなフレームワークが必要である。</t>
+  </si>
+  <si>
+    <t>If there is no comparator, then there is no modification of the value</t>
+  </si>
+  <si>
+    <t>How the Quantity should be understood and represented.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
+  </si>
+  <si>
+    <t>Quantity.comparator</t>
+  </si>
+  <si>
+    <t>IVL properties</t>
+  </si>
+  <si>
+    <t>SN.1  / CQ.1</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rate[x].numerator.unit</t>
+  </si>
+  <si>
+    <t>投与量（体積）の単位</t>
+  </si>
+  <si>
+    <t>投与量（体積）の単位。UCUMを使用する。</t>
+  </si>
+  <si>
+    <t>コンテキストによってさまざまな単位の表現がある。固定された特定の表現が求められることがある。たとえば、mcgはmicrogramを表す。</t>
+  </si>
+  <si>
+    <t>Quantity.unit</t>
+  </si>
+  <si>
+    <t>PQ.unit</t>
+  </si>
+  <si>
+    <t>(see OBX.6 etc.) / CQ.2</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rate[x].numerator.system</t>
+  </si>
+  <si>
+    <t>コード化された単位表現を規定するシステム</t>
+  </si>
+  <si>
+    <t>単位をコード化して表現するシステムについてのID。</t>
+  </si>
+  <si>
+    <t>以下参照。 http://en.wikipedia.org/wiki/Uniform_resource_identifier</t>
+  </si>
+  <si>
+    <t>システムによって定義される単位のコードを把握しておく必要がある。</t>
+  </si>
+  <si>
+    <t>http://unitsofmeasure.org</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationUnitMERIT9_VS</t>
+  </si>
+  <si>
+    <t>Quantity.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qty-3
+</t>
+  </si>
+  <si>
+    <t>CO.codeSystem, PQ.translation.codeSystem</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rate[x].numerator.code</t>
+  </si>
+  <si>
+    <t>単位のコード化された形式、【JP Core仕様】MERIT9医薬品単位略号マスタコードを推奨</t>
+  </si>
+  <si>
+    <t>単位のコード化された形式、【JP Core仕様】MERIT9医薬品単位略号マスタコードを推奨(**SHOULD**)</t>
+  </si>
+  <si>
+    <t>単位のコード化された形式、【JP Core仕様】MERIT9医薬品単位略号マスタコードを推奨(**SHOULD**)されるが、ローカルコード等を利用することも可能とする</t>
+  </si>
+  <si>
+    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
+  </si>
+  <si>
+    <t>Quantity.code</t>
+  </si>
+  <si>
+    <t>PQ.code, MO.currency, PQ.translation.code</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rate[x].denominator</t>
+  </si>
+  <si>
     <t xml:space="preserve">Quantity
 </t>
   </si>
   <si>
-    <t>投与量（体積）</t>
-  </si>
-  <si>
-    <t>Ratio.numerator</t>
-  </si>
-  <si>
-    <t>.numerator</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.rate[x].numerator.id</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.rate[x].numerator.extension</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.rate[x].numerator.value</t>
+    <t>単位時間</t>
+  </si>
+  <si>
+    <t>Ratio.denominator</t>
+  </si>
+  <si>
+    <t>.denominator</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rate[x].denominator.id</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rate[x].denominator.extension</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rate[x].denominator.value</t>
   </si>
   <si>
     <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
   </si>
   <si>
-    <t>Precision is handled implicitly in almost all cases of measurement.</t>
-  </si>
-  <si>
-    <t>Quantity.value</t>
-  </si>
-  <si>
-    <t>PQ.value, CO.value, MO.value, IVL.high or IVL.low depending on the value</t>
-  </si>
-  <si>
-    <t>SN.2  / CQ - N/A</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.rate[x].numerator.comparator</t>
+    <t>Dosage.doseAndRate.rate[x].denominator.comparator</t>
   </si>
   <si>
     <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
@@ -1381,71 +1520,31 @@
     <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
   </si>
   <si>
-    <t>If there is no comparator, then there is no modification of the value</t>
-  </si>
-  <si>
-    <t>How the Quantity should be understood and represented.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
-  </si>
-  <si>
-    <t>Quantity.comparator</t>
-  </si>
-  <si>
-    <t>IVL properties</t>
-  </si>
-  <si>
-    <t>SN.1  / CQ.1</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.rate[x].numerator.unit</t>
-  </si>
-  <si>
-    <t>投与量（体積）の単位</t>
-  </si>
-  <si>
-    <t>投与量（体積）の単位。UCUMを使用する。</t>
+    <t>Dosage.doseAndRate.rate[x].denominator.unit</t>
+  </si>
+  <si>
+    <t>単位時間の単位</t>
+  </si>
+  <si>
+    <t>単位時間の単位。UCUMを使用する。</t>
   </si>
   <si>
     <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
   </si>
   <si>
-    <t>Quantity.unit</t>
-  </si>
-  <si>
-    <t>PQ.unit</t>
-  </si>
-  <si>
-    <t>(see OBX.6 etc.) / CQ.2</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.rate[x].numerator.system</t>
-  </si>
-  <si>
-    <t>System that defines coded unit form</t>
-  </si>
-  <si>
-    <t>The identification of the system that provides the coded form of the unit.</t>
+    <t>Dosage.doseAndRate.rate[x].denominator.system</t>
+  </si>
+  <si>
+    <t>UCUMを識別するURL。</t>
+  </si>
+  <si>
+    <t>UCUMを識別するURL。固定値。</t>
   </si>
   <si>
     <t>Need to know the system that defines the coded form of the unit.</t>
   </si>
   <si>
-    <t>http://unitsofmeasure.org</t>
-  </si>
-  <si>
-    <t>Quantity.system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qty-3
-</t>
-  </si>
-  <si>
-    <t>CO.codeSystem, PQ.translation.codeSystem</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.rate[x].numerator.code</t>
+    <t>Dosage.doseAndRate.rate[x].denominator.code</t>
   </si>
   <si>
     <t>Coded form of the unit</t>
@@ -1457,73 +1556,9 @@
     <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
   </si>
   <si>
-    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
-  </si>
-  <si>
-    <t>Quantity.code</t>
-  </si>
-  <si>
-    <t>PQ.code, MO.currency, PQ.translation.code</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.rate[x].denominator</t>
-  </si>
-  <si>
-    <t>単位時間</t>
-  </si>
-  <si>
-    <t>Ratio.denominator</t>
-  </si>
-  <si>
-    <t>.denominator</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.rate[x].denominator.id</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.rate[x].denominator.extension</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.rate[x].denominator.value</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.rate[x].denominator.comparator</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.rate[x].denominator.unit</t>
-  </si>
-  <si>
-    <t>単位時間の単位</t>
-  </si>
-  <si>
-    <t>単位時間の単位。UCUMを使用する。</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.rate[x].denominator.system</t>
-  </si>
-  <si>
-    <t>UCUMを識別するURL。</t>
-  </si>
-  <si>
-    <t>UCUMを識別するURL。固定値。</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.rate[x].denominator.code</t>
-  </si>
-  <si>
-    <t>rateRange</t>
-  </si>
-  <si>
-    <t>rateQuantity</t>
-  </si>
-  <si>
     <t>Dosage.maxDosePerPeriod</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRatio}
-</t>
-  </si>
-  <si>
     <t>単位時間あたり薬剤の投与量について薬剤単位をバインディングした型である。</t>
   </si>
   <si>
@@ -1531,6 +1566,12 @@
   </si>
   <si>
     <t>Dosage.maxDosePerAdministration</t>
+  </si>
+  <si>
+    <t>薬剤に関する数量と単位を定めた簡易データイプ</t>
+  </si>
+  <si>
+    <t>薬剤に関する簡易的な数量と単位を定めている。ValueおよびCodeを必須とし、comparatorは記述不可。単位についてはMERIT9医薬品単位略号の利用を推進している。(**SHOULD**)</t>
   </si>
   <si>
     <t>The maximum total quantity of a therapeutic substance that may be administered to a subject per administration.</t>
@@ -1846,7 +1887,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK94"/>
+  <dimension ref="A1:AK91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -8875,13 +8916,13 @@
         <v>396</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>74</v>
@@ -8925,7 +8966,7 @@
         <v>74</v>
       </c>
       <c r="AD67" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AE67" t="s" s="2">
         <v>394</v>
@@ -8940,13 +8981,13 @@
         <v>188</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="68">
@@ -8954,7 +8995,7 @@
         <v>394</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C68" t="s" s="2">
         <v>74</v>
@@ -8976,19 +9017,19 @@
         <v>74</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>185</v>
+        <v>405</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>186</v>
+        <v>406</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>186</v>
+        <v>406</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>187</v>
+        <v>407</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>74</v>
@@ -9049,22 +9090,20 @@
         <v>188</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>189</v>
+        <v>401</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>190</v>
+        <v>402</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>191</v>
+        <v>403</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>404</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
         <v>74</v>
       </c>
@@ -9082,22 +9121,22 @@
         <v>74</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>406</v>
+        <v>383</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>406</v>
+        <v>384</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>74</v>
@@ -9134,19 +9173,17 @@
         <v>74</v>
       </c>
       <c r="AA69" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="AB69" s="2"/>
       <c r="AC69" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD69" t="s" s="2">
-        <v>74</v>
+        <v>400</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>75</v>
@@ -9155,23 +9192,25 @@
         <v>82</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>188</v>
+        <v>74</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>400</v>
+        <v>79</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>402</v>
+        <v>413</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="B70" s="2"/>
+      <c r="B70" t="s" s="2">
+        <v>414</v>
+      </c>
       <c r="C70" t="s" s="2">
         <v>74</v>
       </c>
@@ -9189,22 +9228,22 @@
         <v>74</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>383</v>
+        <v>416</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>384</v>
+        <v>417</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>74</v>
@@ -9241,14 +9280,16 @@
         <v>74</v>
       </c>
       <c r="AA70" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AB70" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AC70" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD70" t="s" s="2">
-        <v>399</v>
+        <v>74</v>
       </c>
       <c r="AE70" t="s" s="2">
         <v>408</v>
@@ -9260,25 +9301,23 @@
         <v>82</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>74</v>
+        <v>188</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>79</v>
+        <v>420</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>413</v>
+        <v>122</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>414</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
         <v>74</v>
       </c>
@@ -9299,20 +9338,16 @@
         <v>74</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>409</v>
+        <v>83</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>415</v>
+        <v>84</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>418</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>74</v>
       </c>
@@ -9360,7 +9395,7 @@
         <v>74</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>408</v>
+        <v>86</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>75</v>
@@ -9369,32 +9404,32 @@
         <v>82</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>188</v>
+        <v>74</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>419</v>
+        <v>74</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>420</v>
+        <v>87</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>122</v>
+        <v>74</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>74</v>
@@ -9406,15 +9441,17 @@
         <v>74</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="M72" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>93</v>
+      </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>74</v>
@@ -9451,31 +9488,31 @@
         <v>74</v>
       </c>
       <c r="AA72" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AC72" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD72" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>87</v>
@@ -9486,18 +9523,18 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>74</v>
@@ -9509,16 +9546,16 @@
         <v>74</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>90</v>
+        <v>425</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>91</v>
+        <v>426</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>92</v>
+        <v>426</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>93</v>
+        <v>427</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -9556,42 +9593,42 @@
         <v>74</v>
       </c>
       <c r="AA73" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AC73" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD73" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>97</v>
+        <v>428</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>74</v>
+        <v>188</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>98</v>
+        <v>429</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>87</v>
+        <v>402</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>74</v>
+        <v>403</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9611,16 +9648,16 @@
         <v>74</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>424</v>
+        <v>83</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>425</v>
+        <v>84</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>425</v>
+        <v>85</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -9671,7 +9708,7 @@
         <v>74</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>426</v>
+        <v>86</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>75</v>
@@ -9683,10 +9720,10 @@
         <v>74</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>427</v>
+        <v>87</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>74</v>
@@ -9694,18 +9731,18 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>74</v>
@@ -9717,15 +9754,17 @@
         <v>74</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="M75" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>93</v>
+      </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>74</v>
@@ -9762,31 +9801,31 @@
         <v>74</v>
       </c>
       <c r="AA75" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AC75" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD75" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>87</v>
@@ -9797,18 +9836,18 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>74</v>
@@ -9817,21 +9856,23 @@
         <v>74</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>90</v>
+        <v>206</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>91</v>
+        <v>426</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>92</v>
+        <v>426</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>433</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>434</v>
+      </c>
       <c r="O76" t="s" s="2">
         <v>74</v>
       </c>
@@ -9867,42 +9908,42 @@
         <v>74</v>
       </c>
       <c r="AA76" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AC76" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD76" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>97</v>
+        <v>435</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>87</v>
+        <v>436</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>74</v>
+        <v>437</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9919,30 +9960,32 @@
         <v>74</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>117</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>431</v>
+        <v>149</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="P77" s="2"/>
+      <c r="P77" t="s" s="2">
+        <v>442</v>
+      </c>
       <c r="Q77" t="s" s="2">
         <v>74</v>
       </c>
@@ -9962,13 +10005,13 @@
         <v>74</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>74</v>
+        <v>221</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>74</v>
+        <v>443</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>74</v>
+        <v>444</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>74</v>
@@ -9986,7 +10029,7 @@
         <v>74</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>75</v>
@@ -10001,15 +10044,15 @@
         <v>79</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>435</v>
+        <v>447</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10026,30 +10069,30 @@
         <v>74</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>117</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>218</v>
+        <v>83</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="M78" s="2"/>
+        <v>450</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="N78" t="s" s="2">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="P78" t="s" s="2">
-        <v>440</v>
-      </c>
+      <c r="P78" s="2"/>
       <c r="Q78" t="s" s="2">
         <v>74</v>
       </c>
@@ -10069,13 +10112,13 @@
         <v>74</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>221</v>
+        <v>74</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>441</v>
+        <v>74</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>442</v>
+        <v>74</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>74</v>
@@ -10093,7 +10136,7 @@
         <v>74</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>75</v>
@@ -10108,15 +10151,15 @@
         <v>79</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10139,24 +10182,26 @@
         <v>117</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>83</v>
+        <v>335</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="M79" s="2"/>
+        <v>457</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>458</v>
+      </c>
       <c r="N79" t="s" s="2">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P79" s="2"/>
       <c r="Q79" t="s" s="2">
-        <v>74</v>
+        <v>460</v>
       </c>
       <c r="R79" t="s" s="2">
         <v>74</v>
@@ -10174,13 +10219,11 @@
         <v>74</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="X79" s="2"/>
       <c r="Y79" t="s" s="2">
-        <v>74</v>
+        <v>461</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>74</v>
@@ -10198,7 +10241,7 @@
         <v>74</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>75</v>
@@ -10207,21 +10250,21 @@
         <v>82</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>74</v>
+        <v>463</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10229,7 +10272,7 @@
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F80" t="s" s="2">
         <v>82</v>
@@ -10244,24 +10287,26 @@
         <v>117</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>335</v>
+        <v>218</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="M80" s="2"/>
+        <v>467</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>468</v>
+      </c>
       <c r="N80" t="s" s="2">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P80" s="2"/>
       <c r="Q80" t="s" s="2">
-        <v>457</v>
+        <v>74</v>
       </c>
       <c r="R80" t="s" s="2">
         <v>74</v>
@@ -10279,13 +10324,11 @@
         <v>74</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="X80" s="2"/>
       <c r="Y80" t="s" s="2">
-        <v>74</v>
+        <v>461</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>74</v>
@@ -10303,7 +10346,7 @@
         <v>74</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>75</v>
@@ -10312,21 +10355,21 @@
         <v>82</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>459</v>
+        <v>74</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10349,20 +10392,16 @@
         <v>117</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>218</v>
+        <v>473</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>465</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>74</v>
       </c>
@@ -10410,7 +10449,7 @@
         <v>74</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>75</v>
@@ -10425,15 +10464,15 @@
         <v>79</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>452</v>
+        <v>74</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10453,16 +10492,16 @@
         <v>74</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>424</v>
+        <v>83</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>469</v>
+        <v>84</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>469</v>
+        <v>85</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -10513,7 +10552,7 @@
         <v>74</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>470</v>
+        <v>86</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>75</v>
@@ -10525,10 +10564,10 @@
         <v>74</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>471</v>
+        <v>87</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>74</v>
@@ -10536,18 +10575,18 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>74</v>
@@ -10559,15 +10598,17 @@
         <v>74</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="M83" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>93</v>
+      </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>74</v>
@@ -10604,31 +10645,31 @@
         <v>74</v>
       </c>
       <c r="AA83" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AB83" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AC83" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD83" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>87</v>
@@ -10639,18 +10680,18 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>74</v>
@@ -10659,21 +10700,23 @@
         <v>74</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>90</v>
+        <v>206</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>91</v>
+        <v>474</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>92</v>
+        <v>474</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N84" s="2"/>
+        <v>480</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>434</v>
+      </c>
       <c r="O84" t="s" s="2">
         <v>74</v>
       </c>
@@ -10709,42 +10752,42 @@
         <v>74</v>
       </c>
       <c r="AA84" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AB84" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AC84" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD84" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>97</v>
+        <v>435</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>87</v>
+        <v>436</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>74</v>
+        <v>437</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10761,30 +10804,30 @@
         <v>74</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="I85" t="s" s="2">
         <v>117</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>431</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="M85" s="2"/>
       <c r="N85" t="s" s="2">
-        <v>432</v>
+        <v>484</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="P85" s="2"/>
+      <c r="P85" t="s" s="2">
+        <v>442</v>
+      </c>
       <c r="Q85" t="s" s="2">
         <v>74</v>
       </c>
@@ -10804,13 +10847,13 @@
         <v>74</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>74</v>
+        <v>221</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>74</v>
+        <v>443</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>74</v>
+        <v>444</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>74</v>
@@ -10828,7 +10871,7 @@
         <v>74</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>75</v>
@@ -10843,15 +10886,15 @@
         <v>79</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>435</v>
+        <v>447</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10868,30 +10911,28 @@
         <v>74</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="I86" t="s" s="2">
         <v>117</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>218</v>
+        <v>83</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>437</v>
+        <v>486</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>438</v>
+        <v>487</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" t="s" s="2">
-        <v>439</v>
+        <v>488</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="P86" t="s" s="2">
-        <v>440</v>
-      </c>
+      <c r="P86" s="2"/>
       <c r="Q86" t="s" s="2">
         <v>74</v>
       </c>
@@ -10911,13 +10952,13 @@
         <v>74</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>221</v>
+        <v>74</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>441</v>
+        <v>74</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>442</v>
+        <v>74</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>74</v>
@@ -10935,7 +10976,7 @@
         <v>74</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>75</v>
@@ -10950,15 +10991,15 @@
         <v>79</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -10981,24 +11022,24 @@
         <v>117</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>83</v>
+        <v>335</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" t="s" s="2">
-        <v>449</v>
+        <v>492</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P87" s="2"/>
       <c r="Q87" t="s" s="2">
-        <v>74</v>
+        <v>460</v>
       </c>
       <c r="R87" t="s" s="2">
         <v>74</v>
@@ -11040,7 +11081,7 @@
         <v>74</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>75</v>
@@ -11049,21 +11090,21 @@
         <v>82</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>74</v>
+        <v>463</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>479</v>
+        <v>493</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11086,24 +11127,26 @@
         <v>117</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>335</v>
+        <v>218</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>480</v>
+        <v>494</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="M88" s="2"/>
+        <v>495</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>496</v>
+      </c>
       <c r="N88" t="s" s="2">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P88" s="2"/>
       <c r="Q88" t="s" s="2">
-        <v>457</v>
+        <v>74</v>
       </c>
       <c r="R88" t="s" s="2">
         <v>74</v>
@@ -11145,7 +11188,7 @@
         <v>74</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>75</v>
@@ -11154,21 +11197,21 @@
         <v>82</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>459</v>
+        <v>74</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11188,22 +11231,22 @@
         <v>74</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>218</v>
+        <v>415</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>462</v>
+        <v>417</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>463</v>
+        <v>417</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>464</v>
+        <v>498</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>465</v>
+        <v>499</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>74</v>
@@ -11252,7 +11295,7 @@
         <v>74</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>466</v>
+        <v>497</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>75</v>
@@ -11261,25 +11304,23 @@
         <v>82</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>74</v>
+        <v>188</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>79</v>
+        <v>420</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>467</v>
+        <v>421</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>452</v>
+        <v>122</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="B90" t="s" s="2">
-        <v>483</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
         <v>74</v>
       </c>
@@ -11300,19 +11341,19 @@
         <v>74</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>185</v>
+        <v>405</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>186</v>
+        <v>501</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>186</v>
+        <v>501</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>187</v>
+        <v>502</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>411</v>
+        <v>503</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>74</v>
@@ -11361,7 +11402,7 @@
         <v>74</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>408</v>
+        <v>500</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>75</v>
@@ -11373,22 +11414,20 @@
         <v>188</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>189</v>
+        <v>401</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>190</v>
+        <v>402</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>191</v>
+        <v>403</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="B91" t="s" s="2">
-        <v>484</v>
-      </c>
+        <v>504</v>
+      </c>
+      <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
         <v>74</v>
       </c>
@@ -11412,16 +11451,16 @@
         <v>405</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>406</v>
+        <v>501</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>406</v>
+        <v>501</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>407</v>
+        <v>502</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>411</v>
+        <v>505</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>74</v>
@@ -11470,7 +11509,7 @@
         <v>74</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>408</v>
+        <v>504</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>75</v>
@@ -11482,334 +11521,13 @@
         <v>188</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="B92" s="2"/>
-      <c r="C92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D92" s="2"/>
-      <c r="E92" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F92" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J92" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="K92" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P92" s="2"/>
-      <c r="Q92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="B93" s="2"/>
-      <c r="C93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D93" s="2"/>
-      <c r="E93" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F93" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J93" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="K93" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P93" s="2"/>
-      <c r="Q93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="B94" s="2"/>
-      <c r="C94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D94" s="2"/>
-      <c r="E94" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F94" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J94" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="K94" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P94" s="2"/>
-      <c r="Q94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH94" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage-injection.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage-injection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T09:18:52+00:00</t>
+    <t>2022-09-14T09:38:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage-injection.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3061" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2431" uniqueCount="424">
   <si>
     <t>Property</t>
   </si>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>JP Core MedicationDosage Prescription Profile</t>
+    <t>JP Core MedicationDosage Prescription DataType</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T09:38:33+00:00</t>
+    <t>2022-09-14T12:56:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>注射用法に関するプロファイル</t>
+    <t>注射用法に関するDataType</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -578,682 +578,659 @@
     <t>服用・注射開始日から服用・注射終了日までの全日数。実投与日数ではないことに注意する。</t>
   </si>
   <si>
+    <t>Timing.repeat.bounds[x]</t>
+  </si>
+  <si>
+    <t>IVL(TS) used in a QSI</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positiveInt
+</t>
+  </si>
+  <si>
+    <t>繰り返し服用もしくは注射回数</t>
+  </si>
+  <si>
+    <t>Timing仕様の全てにおいて、特定の期間に繰り返されるように指定された総回数。もし、countMaxが設定されていれば、このエレメントは許容される最低限度の回数を示す。</t>
+  </si>
+  <si>
+    <t>回数に上限、下限の範囲がある場合は、このcountで示される回数が起きるまでは、エレメントは範囲の中にあると解釈されるべきである。</t>
+  </si>
+  <si>
+    <t>Repetitions may be limited by end time or total occurrences.</t>
+  </si>
+  <si>
+    <t>Timing.repeat.count</t>
+  </si>
+  <si>
+    <t>PIVL.count</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.countMax</t>
+  </si>
+  <si>
+    <t>繰り返しの最大回数</t>
+  </si>
+  <si>
+    <t>このエレメントが設定されている場合は、回数に範囲があることを示している。したがって、[count]から[countmax]までの回数で繰り返される。</t>
+  </si>
+  <si>
+    <t>32bit整数。もし、値がこれを超える場合はdecimalで記録される。</t>
+  </si>
+  <si>
+    <t>Timing.repeat.countMax</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.duration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decimal
+</t>
+  </si>
+  <si>
+    <t>継続時間</t>
+  </si>
+  <si>
+    <t>投与されるタイミングが発生している時間。もし、durationMaxが設定されていれば、このエレメントは許容される継続時間の下限を示す。</t>
+  </si>
+  <si>
+    <t>継続時間はイベントの定義の一部（たとえば、静脈注射(IV)では特定の量と速度が明示される)として示されることがある。その他、Timing仕様の一部（たとえば、運動）として示されることもある。</t>
+  </si>
+  <si>
+    <t>アクティビティによっては即時的なものではなく、その期間において維持される必要がある。</t>
+  </si>
+  <si>
+    <t>Timing.repeat.duration</t>
+  </si>
+  <si>
+    <t>PIVL.phase</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.durationMax</t>
+  </si>
+  <si>
+    <t>継続時間(最大値)</t>
+  </si>
+  <si>
+    <t>もし、このエレメントに値が設定されていれば、durationには範囲があることを示している。したがって、[duration]から[durationMax]までの継続時間の範囲で投与される。</t>
+  </si>
+  <si>
+    <t>Timing.repeat.durationMax</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.durationUnit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>s | min | h | d | wk | mo | a - unit of time (UCUM)</t>
+  </si>
+  <si>
+    <t>UCUM単位で表される継続時間についての単位。</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>A unit of time (units from UCUM).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/units-of-time|4.0.1</t>
+  </si>
+  <si>
+    <t>Timing.repeat.durationUnit</t>
+  </si>
+  <si>
+    <t>PIVL.phase.unit</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.frequency</t>
+  </si>
+  <si>
+    <t>期間内にイベントが発生する回数、頻度</t>
+  </si>
+  <si>
+    <t>特定の期間に繰り返して発生した行為の回数。もし、frequencyMaxが設定されていれば、このエレメントはfrequencyとして認められた下限を示す。</t>
+  </si>
+  <si>
+    <t>32ビットの数値。もし、値がそれを上回るようであればdecimalを使用する。</t>
+  </si>
+  <si>
+    <t>If no frequency is stated, the assumption is that the event occurs once per period, but systems SHOULD always be specific about this</t>
+  </si>
+  <si>
+    <t>Timing.repeat.frequency</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.frequencyMax</t>
+  </si>
+  <si>
+    <t>期間内にイベントが発生する最大回数、最大頻度</t>
+  </si>
+  <si>
+    <t>このエレメントに値が設定されていれば、frequencyには範囲が指定されている。つまり、期間あるいは期間の範囲内に[frequency]から[frequencyMax]回繰り返されることを示している。</t>
+  </si>
+  <si>
+    <t>Timing.repeat.frequencyMax</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.period</t>
+  </si>
+  <si>
+    <t>イベントが発生する頻度に対応する期間</t>
+  </si>
+  <si>
+    <t>繰り返し投与が行われる期間を示す。たとえば、「1日3回」であれば、3は繰り返しの頻度(frequency)であり、「1日」が期間(period)である。もし、periodMaxに値が設定されていれば、このエレメントは期間として認められた範囲の下限を示す。</t>
+  </si>
+  <si>
+    <t>IEEEの浮動小数点型を使わずに、小数点も含むdecimal型のようなものを利用すること（たとえばJavaのBigInteger)。</t>
+  </si>
+  <si>
+    <t>Timing.repeat.period</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.periodMax</t>
+  </si>
+  <si>
+    <t>期間の上限（3-4時間）</t>
+  </si>
+  <si>
+    <t>もし、この値が設定されていれば、期間は[period]から[periodMax]までであることを示し、「3-5日に1回投与」のような表現が認められる。</t>
+  </si>
+  <si>
+    <t>IEEEの浮動小数点型を使わずに、小数点の制度も示すdecimal型のようなものを利用すること（たとえばJavaのBigInteger)。</t>
+  </si>
+  <si>
+    <t>Timing.repeat.periodMax</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.periodUnit</t>
+  </si>
+  <si>
+    <t>期間を表すUCUM単位。</t>
+  </si>
+  <si>
+    <t>Timing.repeat.periodUnit</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.dayOfWeek</t>
+  </si>
+  <si>
+    <t>mon | tue | wed | thu | fri | sat | sun</t>
+  </si>
+  <si>
+    <t>期間として1週間以上が指定されていれば、指定された曜日のみで投与が行われる。</t>
+  </si>
+  <si>
+    <t>曜日が指定されていなければ、他に指定された日には毎日投与されると想定される。frequencyとperiodエレメントはdayOfWeekと同じように使うことはできない。</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/days-of-week|4.0.1</t>
+  </si>
+  <si>
+    <t>Timing.repeat.dayOfWeek</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.timeOfDay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time
+</t>
+  </si>
+  <si>
+    <t>一日の間で投与される時刻</t>
+  </si>
+  <si>
+    <t>一日の間で指定された投与される時刻。</t>
+  </si>
+  <si>
+    <t>もし、このtimeOfDayに値が指定されていれば、毎日（daysOfWeekでフィルタされた曜日の）指定された時刻に投与されると推定される。whenやfrequency, periodエレメントはtimeOfDayとは同様に使うことはできない。</t>
+  </si>
+  <si>
+    <t>Timing.repeat.timeOfDay</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.when</t>
+  </si>
+  <si>
+    <t>投薬期間についてのコード</t>
+  </si>
+  <si>
+    <t>一日の間のおおよその時間帯で投与すべきタイミングを示す。日常のイベントに関連付けられていることもある。</t>
+  </si>
+  <si>
+    <t>一つ以上のイベントが記載されている場合、そのイベントは特定のイベントの組み合わせと結びついている。</t>
+  </si>
+  <si>
+    <t>タイミングはしばしば起床や食事、睡眠などのできごとによってしばしば決定されている。</t>
+  </si>
+  <si>
+    <t>Real world event relating to the schedule.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/event-timing|4.0.1</t>
+  </si>
+  <si>
+    <t>Timing.repeat.when</t>
+  </si>
+  <si>
+    <t>EIVL.event</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.offset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unsignedInt
+</t>
+  </si>
+  <si>
+    <t>イベントからの時間(分、前後）</t>
+  </si>
+  <si>
+    <t>イベントからの時間(分)。もし、分で示される時間がイベントのコードが前か後かを示していない場合、offsetはイベントの後であることが想定される。</t>
+  </si>
+  <si>
+    <t>Timing.repeat.offset</t>
+  </si>
+  <si>
+    <t>EIVL.offset</t>
+  </si>
+  <si>
+    <t>Dosage.timing.code</t>
+  </si>
+  <si>
+    <t>BID | TID | QID | AM | PM | QD | QOD | +</t>
+  </si>
+  <si>
+    <t>スケジュール上のタイミングを表すコード（あるいはcode.text内のテキスト）。BID(1日2回)のようなコードはどこにでもあるが、多くの医療機関は付加的なコードを定義している。もし、コードが示されていれば、構造化されたタイミングで完全に示されたデータであると解釈され、コードまたはTimingを解釈するためのデータであると解釈される。しかし、例外的に.repeat.bounds（コードは含まれない)はコードを上書きして適用される。</t>
+  </si>
+  <si>
+    <t>BIDなどは「施設特有の時間」として定義される。たとえば、施設がBIDを「つねに朝7時と夕方6時」であると指定することがある。この指定が不適切であれば、BIDというコードは使うべきではない。その代わり、HL7が定義したBIDのコードではなく、その施設特有のコードで明示的に示すべきであり、構造化された表現を使うべきである（この場合、2回のイベントの時刻を指定する必要がある）。  
+【JP Core仕様】頓用指示時にはJAMI処方・注射オーダ標準用法規格の表6 イベント区分、イベント詳細区分(“http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicationAsNeededConditionJAMI_CS”)を推奨するが、MERIT-9 処方オーダ 表5 頓用指示(“http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicationAsNeededConditionMERIT9_CS”) を使用してもよい。</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationUsageInjection_VS</t>
+  </si>
+  <si>
+    <t>Timing.code</t>
+  </si>
+  <si>
+    <t>QSC.code</t>
+  </si>
+  <si>
+    <t>Dosage.asNeeded[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>「頓用」指示</t>
+  </si>
+  <si>
+    <t>【JP Core仕様】頓用型の用法を指定する場合に”true”を指定し、そのコードを指定する場合は用法コードとして指定する。
+Medication(薬剤)が必要なときに指定された量とスケジュールのみで投薬するか（Booleanで選択される）、投薬する前提条件はTiming.Code(CodeableConcept)を示している。</t>
+  </si>
+  <si>
+    <t>Can express "as needed" without a reason by setting the Boolean = True.  In this case the CodeableConcept is not populated.  Or you can express "as needed" with a reason by including the CodeableConcept.  In this case the Boolean is assumed to be True.  If you set the Boolean to False, then the dose is given according to the schedule and is not "prn" or "as needed".</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=PRCN].target[classCode=OBS, moodCode=EVN, code="as needed"].value=boolean or codable concept</t>
+  </si>
+  <si>
+    <t>TQ1-9</t>
+  </si>
+  <si>
+    <t>Dosage.site</t>
+  </si>
+  <si>
+    <t>投与される身体部位</t>
+  </si>
+  <si>
+    <t>投与される身体部位。外用薬で部位を指定する場合に使用する。</t>
+  </si>
+  <si>
+    <t>もし、BodySite resourceの属性が必要な場合(たとえば、部位の指定や別々に投与経路を設定する場合)は、[bodySite](extension-bodysite.html)の標準拡張を使うこと。要約コードや非常に正確な位置の定義へのreferenceを使用することもできる。  
+【JP Core仕様】JAMI外用部位３桁コードを使用することが望ましいが、ローカルコードも使用可能。</t>
+  </si>
+  <si>
+    <t>A coded specification of the anatomic site where the medication first enters the body.</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationBodySiteJAMIExternal_VS</t>
+  </si>
+  <si>
+    <t>.approachSiteCode</t>
+  </si>
+  <si>
+    <t>RXR-2</t>
+  </si>
+  <si>
+    <t>Dosage.route</t>
+  </si>
+  <si>
+    <t>投与経路</t>
+  </si>
+  <si>
+    <t>投与経路の一般的パターンに全てのターミノロジーが適応しているわけではない。情報モデルはCodeableConceptではなく、直接Codingをを使用してテキストやコーディング、翻訳、そしてエレメントと事前条件、事後条件の関係について管理するためにその構造を提示する必要がある。  
+【JP Core仕様】HL7表0162をベースにした投与経路コードを使用することが望ましいが、ローカルコードも使用可能。</t>
+  </si>
+  <si>
+    <t>A code specifying the route or physiological path of administration of a therapeutic agent into or onto a patient's body.</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicationRouteHL70162_VS</t>
+  </si>
+  <si>
+    <t>.routeCode</t>
+  </si>
+  <si>
+    <t>RXR-1</t>
+  </si>
+  <si>
+    <t>Dosage.method</t>
+  </si>
+  <si>
+    <t>投与方法</t>
+  </si>
+  <si>
+    <t>ターミノロジーは投与する経路あるいは剤型をあらかじめ指定するために用いられる。</t>
+  </si>
+  <si>
+    <t>コード化された値は体内に薬剤が投与される方法を示している。注射ではよく使われる。たとえば、緩徐に注入、深部に静注など。</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>A coded concept describing the technique by which the medicine is administered.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/administration-method-codes</t>
+  </si>
+  <si>
+    <t>.doseQuantity</t>
+  </si>
+  <si>
+    <t>RXR-4</t>
+  </si>
+  <si>
+    <t>Dosage.method.id</t>
+  </si>
+  <si>
+    <t>Dosage.method.extension</t>
+  </si>
+  <si>
+    <t>Dosage.method.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:system}
+</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>unitDigit1</t>
+  </si>
+  <si>
+    <t>投与⽅法に対応するJAMI 用法コード表基本用法１桁コード</t>
+  </si>
+  <si>
+    <t>投与⽅法に対応するJAMI 用法コード表基本用法１桁コードを識別するURI。</t>
+  </si>
+  <si>
+    <t>コードは臨時で列記したものや、コードのリストからSNOMED CTのように公式に定義されたものまである（HL7 v3 core principle を参照)。FHIR自体ではコーディング規約を定めてはいないし、意味を暗示するために利用されない(SHALL NOT)。一般的に UserSelected = trueの場合には一つのコードシステムが使われる。</t>
+  </si>
+  <si>
+    <t>他のコードシステムへの変換や代替のコードシステムを使ってエンコードしてもよい。</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationMethodJAMIBasicUsage_VS</t>
+  </si>
+  <si>
+    <t>Dosage.method.coding.id</t>
+  </si>
+  <si>
+    <t>Dosage.method.coding.extension</t>
+  </si>
+  <si>
+    <t>Dosage.method.coding.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.392.200250.2.2.20.30</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>Dosage.method.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>Dosage.method.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>Dosage.method.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>Dosage.method.coding.userSelected</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>unitDigit2</t>
+  </si>
+  <si>
+    <t>投与⽅法に対応するJAMI 用法コード表基本用法2桁コード</t>
+  </si>
+  <si>
+    <t>投与⽅法に対応するJAMI 用法コード表基本用法2桁コードを識別するURI。２桁コードurn:oid:1.2.392.200250.2.2.20.40</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationMethodJAMIDetailUsage_VS</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.392.200250.2.2.20.40</t>
+  </si>
+  <si>
+    <t>Dosage.method.text</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate</t>
+  </si>
+  <si>
+    <t>薬剤の投与量</t>
+  </si>
+  <si>
+    <t>薬剤が投与される量</t>
+  </si>
+  <si>
+    <t>TQ1-2</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.id</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.extension</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.type</t>
+  </si>
+  <si>
+    <t>力価区分</t>
+  </si>
+  <si>
+    <t>投与速度・量の一般的パターンに全てのターミノロジーが適応しているわけではない。情報モデルはCodeableConceptではなく、直接Codingをを使用してテキストやコーディング、翻訳、そしてエレメントと事前条件、事後条件の関係について管理するためにその構造を提示する必要がある。</t>
+  </si>
+  <si>
+    <t>このtypeに値が指定されていなければ、"ordered"であることが想定される。</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationIngredientStrengthStrengthType_VS</t>
+  </si>
+  <si>
+    <t>RXO-21; RXE-23</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.dose[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity {SimpleQuantity}
+</t>
+  </si>
+  <si>
+    <t>A fixed quantity (no comparator)</t>
+  </si>
+  <si>
+    <t>The comparator is not used on a SimpleQuantity</t>
+  </si>
+  <si>
+    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
+  </si>
+  <si>
+    <t>The amount of therapeutic or other substance given at one administration event.</t>
+  </si>
+  <si>
     <t xml:space="preserve">type:$this}
 </t>
   </si>
   <si>
-    <t>Timing.repeat.bounds[x]</t>
-  </si>
-  <si>
-    <t>IVL(TS) used in a QSI</t>
-  </si>
-  <si>
-    <t>boundsRange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Range {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRange}
-</t>
-  </si>
-  <si>
-    <t>薬剤の単位指定された上限下限量</t>
-  </si>
-  <si>
-    <t>薬剤の上限量、下限量の範囲を持っている。単位指定された数量を割り当てている。</t>
+    <t>closed</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-rng-2:If present, low SHALL have a lower value than high {low.empty() or high.empty() or (low &lt;= high)}</t>
-  </si>
-  <si>
-    <t>IVL&lt;QTY[not(type="TS")]&gt; [lowClosed="true" and highClosed="true"]or URG&lt;QTY[not(type="TS")]&gt;</t>
-  </si>
-  <si>
-    <t>NR and also possibly SN (but see also quantity)</t>
-  </si>
-  <si>
-    <t>Dosage.timing.repeat.count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positiveInt
-</t>
-  </si>
-  <si>
-    <t>繰り返し服用もしくは注射回数</t>
-  </si>
-  <si>
-    <t>Timing仕様の全てにおいて、特定の期間に繰り返されるように指定された総回数。もし、countMaxが設定されていれば、このエレメントは許容される最低限度の回数を示す。</t>
-  </si>
-  <si>
-    <t>回数に上限、下限の範囲がある場合は、このcountで示される回数が起きるまでは、エレメントは範囲の中にあると解釈されるべきである。</t>
-  </si>
-  <si>
-    <t>Repetitions may be limited by end time or total occurrences.</t>
-  </si>
-  <si>
-    <t>Timing.repeat.count</t>
-  </si>
-  <si>
-    <t>PIVL.count</t>
-  </si>
-  <si>
-    <t>Dosage.timing.repeat.countMax</t>
-  </si>
-  <si>
-    <t>繰り返しの最大回数</t>
-  </si>
-  <si>
-    <t>このエレメントが設定されている場合は、回数に範囲があることを示している。したがって、[count]から[countmax]までの回数で繰り返される。</t>
-  </si>
-  <si>
-    <t>32bit整数。もし、値がこれを超える場合はdecimalで記録される。</t>
-  </si>
-  <si>
-    <t>Timing.repeat.countMax</t>
-  </si>
-  <si>
-    <t>Dosage.timing.repeat.duration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decimal
-</t>
-  </si>
-  <si>
-    <t>継続時間</t>
-  </si>
-  <si>
-    <t>投与されるタイミングが発生している時間。もし、durationMaxが設定されていれば、このエレメントは許容される継続時間の下限を示す。</t>
-  </si>
-  <si>
-    <t>継続時間はイベントの定義の一部（たとえば、静脈注射(IV)では特定の量と速度が明示される)として示されることがある。その他、Timing仕様の一部（たとえば、運動）として示されることもある。</t>
-  </si>
-  <si>
-    <t>アクティビティによっては即時的なものではなく、その期間において維持される必要がある。</t>
-  </si>
-  <si>
-    <t>Timing.repeat.duration</t>
-  </si>
-  <si>
-    <t>PIVL.phase</t>
-  </si>
-  <si>
-    <t>Dosage.timing.repeat.durationMax</t>
-  </si>
-  <si>
-    <t>継続時間(最大値)</t>
-  </si>
-  <si>
-    <t>もし、このエレメントに値が設定されていれば、durationには範囲があることを示している。したがって、[duration]から[durationMax]までの継続時間の範囲で投与される。</t>
-  </si>
-  <si>
-    <t>Timing.repeat.durationMax</t>
-  </si>
-  <si>
-    <t>Dosage.timing.repeat.durationUnit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>s | min | h | d | wk | mo | a - unit of time (UCUM)</t>
-  </si>
-  <si>
-    <t>UCUM単位で表される継続時間についての単位。</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>A unit of time (units from UCUM).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/units-of-time|4.0.1</t>
-  </si>
-  <si>
-    <t>Timing.repeat.durationUnit</t>
-  </si>
-  <si>
-    <t>PIVL.phase.unit</t>
-  </si>
-  <si>
-    <t>Dosage.timing.repeat.frequency</t>
-  </si>
-  <si>
-    <t>期間内にイベントが発生する回数、頻度</t>
-  </si>
-  <si>
-    <t>特定の期間に繰り返して発生した行為の回数。もし、frequencyMaxが設定されていれば、このエレメントはfrequencyとして認められた下限を示す。</t>
-  </si>
-  <si>
-    <t>32ビットの数値。もし、値がそれを上回るようであればdecimalを使用する。</t>
-  </si>
-  <si>
-    <t>If no frequency is stated, the assumption is that the event occurs once per period, but systems SHOULD always be specific about this</t>
-  </si>
-  <si>
-    <t>Timing.repeat.frequency</t>
-  </si>
-  <si>
-    <t>Dosage.timing.repeat.frequencyMax</t>
-  </si>
-  <si>
-    <t>期間内にイベントが発生する最大回数、最大頻度</t>
-  </si>
-  <si>
-    <t>このエレメントに値が設定されていれば、frequencyには範囲が指定されている。つまり、期間あるいは期間の範囲内に[frequency]から[frequencyMax]回繰り返されることを示している。</t>
-  </si>
-  <si>
-    <t>Timing.repeat.frequencyMax</t>
-  </si>
-  <si>
-    <t>Dosage.timing.repeat.period</t>
-  </si>
-  <si>
-    <t>イベントが発生する頻度に対応する期間</t>
-  </si>
-  <si>
-    <t>繰り返し投与が行われる期間を示す。たとえば、「1日3回」であれば、3は繰り返しの頻度(frequency)であり、「1日」が期間(period)である。もし、periodMaxに値が設定されていれば、このエレメントは期間として認められた範囲の下限を示す。</t>
-  </si>
-  <si>
-    <t>IEEEの浮動小数点型を使わずに、小数点も含むdecimal型のようなものを利用すること（たとえばJavaのBigInteger)。</t>
-  </si>
-  <si>
-    <t>Timing.repeat.period</t>
-  </si>
-  <si>
-    <t>Dosage.timing.repeat.periodMax</t>
-  </si>
-  <si>
-    <t>期間の上限（3-4時間）</t>
-  </si>
-  <si>
-    <t>もし、この値が設定されていれば、期間は[period]から[periodMax]までであることを示し、「3-5日に1回投与」のような表現が認められる。</t>
-  </si>
-  <si>
-    <t>IEEEの浮動小数点型を使わずに、小数点の制度も示すdecimal型のようなものを利用すること（たとえばJavaのBigInteger)。</t>
-  </si>
-  <si>
-    <t>Timing.repeat.periodMax</t>
-  </si>
-  <si>
-    <t>Dosage.timing.repeat.periodUnit</t>
-  </si>
-  <si>
-    <t>期間を表すUCUM単位。</t>
-  </si>
-  <si>
-    <t>Timing.repeat.periodUnit</t>
-  </si>
-  <si>
-    <t>Dosage.timing.repeat.dayOfWeek</t>
-  </si>
-  <si>
-    <t>mon | tue | wed | thu | fri | sat | sun</t>
-  </si>
-  <si>
-    <t>期間として1週間以上が指定されていれば、指定された曜日のみで投与が行われる。</t>
-  </si>
-  <si>
-    <t>曜日が指定されていなければ、他に指定された日には毎日投与されると想定される。frequencyとperiodエレメントはdayOfWeekと同じように使うことはできない。</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/days-of-week|4.0.1</t>
-  </si>
-  <si>
-    <t>Timing.repeat.dayOfWeek</t>
-  </si>
-  <si>
-    <t>Dosage.timing.repeat.timeOfDay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">time
-</t>
-  </si>
-  <si>
-    <t>一日の間で投与される時刻</t>
-  </si>
-  <si>
-    <t>一日の間で指定された投与される時刻。</t>
-  </si>
-  <si>
-    <t>もし、このtimeOfDayに値が指定されていれば、毎日（daysOfWeekでフィルタされた曜日の）指定された時刻に投与されると推定される。whenやfrequency, periodエレメントはtimeOfDayとは同様に使うことはできない。</t>
-  </si>
-  <si>
-    <t>Timing.repeat.timeOfDay</t>
-  </si>
-  <si>
-    <t>Dosage.timing.repeat.when</t>
-  </si>
-  <si>
-    <t>投薬期間についてのコード</t>
-  </si>
-  <si>
-    <t>一日の間のおおよその時間帯で投与すべきタイミングを示す。日常のイベントに関連付けられていることもある。</t>
-  </si>
-  <si>
-    <t>一つ以上のイベントが記載されている場合、そのイベントは特定のイベントの組み合わせと結びついている。</t>
-  </si>
-  <si>
-    <t>タイミングはしばしば起床や食事、睡眠などのできごとによってしばしば決定されている。</t>
-  </si>
-  <si>
-    <t>Real world event relating to the schedule.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/event-timing|4.0.1</t>
-  </si>
-  <si>
-    <t>Timing.repeat.when</t>
-  </si>
-  <si>
-    <t>EIVL.event</t>
-  </si>
-  <si>
-    <t>Dosage.timing.repeat.offset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unsignedInt
-</t>
-  </si>
-  <si>
-    <t>イベントからの時間(分、前後）</t>
-  </si>
-  <si>
-    <t>イベントからの時間(分)。もし、分で示される時間がイベントのコードが前か後かを示していない場合、offsetはイベントの後であることが想定される。</t>
-  </si>
-  <si>
-    <t>Timing.repeat.offset</t>
-  </si>
-  <si>
-    <t>EIVL.offset</t>
-  </si>
-  <si>
-    <t>Dosage.timing.code</t>
-  </si>
-  <si>
-    <t>BID | TID | QID | AM | PM | QD | QOD | +</t>
-  </si>
-  <si>
-    <t>スケジュール上のタイミングを表すコード（あるいはcode.text内のテキスト）。BID(1日2回)のようなコードはどこにでもあるが、多くの医療機関は付加的なコードを定義している。もし、コードが示されていれば、構造化されたタイミングで完全に示されたデータであると解釈され、コードまたはTimingを解釈するためのデータであると解釈される。しかし、例外的に.repeat.bounds（コードは含まれない)はコードを上書きして適用される。</t>
-  </si>
-  <si>
-    <t>BIDなどは「施設特有の時間」として定義される。たとえば、施設がBIDを「つねに朝7時と夕方6時」であると指定することがある。この指定が不適切であれば、BIDというコードは使うべきではない。その代わり、HL7が定義したBIDのコードではなく、その施設特有のコードで明示的に示すべきであり、構造化された表現を使うべきである（この場合、2回のイベントの時刻を指定する必要がある）。  
-【JP Core仕様】頓用指示時にはJAMI処方・注射オーダ標準用法規格の表6 イベント区分、イベント詳細区分(“http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicationAsNeededConditionJAMI_CS”)を推奨するが、MERIT-9 処方オーダ 表5 頓用指示(“http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicationAsNeededConditionMERIT9_CS”) を使用してもよい。</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationUsageInjection_VS</t>
-  </si>
-  <si>
-    <t>Timing.code</t>
-  </si>
-  <si>
-    <t>QSC.code</t>
-  </si>
-  <si>
-    <t>Dosage.asNeeded[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>「頓用」指示</t>
-  </si>
-  <si>
-    <t>【JP Core仕様】頓用型の用法を指定する場合に”true”を指定し、そのコードを指定する場合は用法コードとして指定する。
-Medication(薬剤)が必要なときに指定された量とスケジュールのみで投薬するか（Booleanで選択される）、投薬する前提条件はTiming.Code(CodeableConcept)を示している。</t>
-  </si>
-  <si>
-    <t>Can express "as needed" without a reason by setting the Boolean = True.  In this case the CodeableConcept is not populated.  Or you can express "as needed" with a reason by including the CodeableConcept.  In this case the Boolean is assumed to be True.  If you set the Boolean to False, then the dose is given according to the schedule and is not "prn" or "as needed".</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=PRCN].target[classCode=OBS, moodCode=EVN, code="as needed"].value=boolean or codable concept</t>
-  </si>
-  <si>
-    <t>TQ1-9</t>
-  </si>
-  <si>
-    <t>Dosage.site</t>
-  </si>
-  <si>
-    <t>投与される身体部位</t>
-  </si>
-  <si>
-    <t>投与される身体部位。外用薬で部位を指定する場合に使用する。</t>
-  </si>
-  <si>
-    <t>もし、BodySite resourceの属性が必要な場合(たとえば、部位の指定や別々に投与経路を設定する場合)は、[bodySite](extension-bodysite.html)の標準拡張を使うこと。要約コードや非常に正確な位置の定義へのreferenceを使用することもできる。  
-【JP Core仕様】JAMI外用部位３桁コードを使用することが望ましいが、ローカルコードも使用可能。</t>
-  </si>
-  <si>
-    <t>A coded specification of the anatomic site where the medication first enters the body.</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationBodySiteJAMIExternal_VS</t>
-  </si>
-  <si>
-    <t>.approachSiteCode</t>
-  </si>
-  <si>
-    <t>RXR-2</t>
-  </si>
-  <si>
-    <t>Dosage.route</t>
-  </si>
-  <si>
-    <t>投与経路</t>
-  </si>
-  <si>
-    <t>投与経路の一般的パターンに全てのターミノロジーが適応しているわけではない。情報モデルはCodeableConceptではなく、直接Codingをを使用してテキストやコーディング、翻訳、そしてエレメントと事前条件、事後条件の関係について管理するためにその構造を提示する必要がある。  
-【JP Core仕様】HL7表0162をベースにした投与経路コードを使用することが望ましいが、ローカルコードも使用可能。</t>
-  </si>
-  <si>
-    <t>A code specifying the route or physiological path of administration of a therapeutic agent into or onto a patient's body.</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicationRouteHL70162_VS</t>
-  </si>
-  <si>
-    <t>.routeCode</t>
-  </si>
-  <si>
-    <t>RXR-1</t>
-  </si>
-  <si>
-    <t>Dosage.method</t>
-  </si>
-  <si>
-    <t>投与方法</t>
-  </si>
-  <si>
-    <t>ターミノロジーは投与する経路あるいは剤型をあらかじめ指定するために用いられる。</t>
-  </si>
-  <si>
-    <t>コード化された値は体内に薬剤が投与される方法を示している。注射ではよく使われる。たとえば、緩徐に注入、深部に静注など。</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>A coded concept describing the technique by which the medicine is administered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/administration-method-codes</t>
-  </si>
-  <si>
-    <t>.doseQuantity</t>
-  </si>
-  <si>
-    <t>RXR-4</t>
-  </si>
-  <si>
-    <t>Dosage.method.id</t>
-  </si>
-  <si>
-    <t>Dosage.method.extension</t>
-  </si>
-  <si>
-    <t>Dosage.method.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:system}
-</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>unitDigit1</t>
-  </si>
-  <si>
-    <t>投与⽅法に対応するJAMI 用法コード表基本用法１桁コード</t>
-  </si>
-  <si>
-    <t>投与⽅法に対応するJAMI 用法コード表基本用法１桁コードを識別するURI。</t>
-  </si>
-  <si>
-    <t>コードは臨時で列記したものや、コードのリストからSNOMED CTのように公式に定義されたものまである（HL7 v3 core principle を参照)。FHIR自体ではコーディング規約を定めてはいないし、意味を暗示するために利用されない(SHALL NOT)。一般的に UserSelected = trueの場合には一つのコードシステムが使われる。</t>
-  </si>
-  <si>
-    <t>他のコードシステムへの変換や代替のコードシステムを使ってエンコードしてもよい。</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationMethodJAMIBasicUsage_VS</t>
-  </si>
-  <si>
-    <t>Dosage.method.coding.id</t>
-  </si>
-  <si>
-    <t>Dosage.method.coding.extension</t>
-  </si>
-  <si>
-    <t>Dosage.method.coding.system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>urn:oid:1.2.392.200250.2.2.20.30</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
-    <t>Dosage.method.coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
-    <t>Dosage.method.coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
-    <t>Dosage.method.coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
-    <t>Dosage.method.coding.userSelected</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
-  </si>
-  <si>
-    <t>unitDigit2</t>
-  </si>
-  <si>
-    <t>投与⽅法に対応するJAMI 用法コード表基本用法2桁コード</t>
-  </si>
-  <si>
-    <t>投与⽅法に対応するJAMI 用法コード表基本用法2桁コードを識別するURI。２桁コードurn:oid:1.2.392.200250.2.2.20.40</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationMethodJAMIDetailUsage_VS</t>
-  </si>
-  <si>
-    <t>urn:oid:1.2.392.200250.2.2.20.40</t>
-  </si>
-  <si>
-    <t>Dosage.method.text</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate</t>
-  </si>
-  <si>
-    <t>薬剤の投与量</t>
-  </si>
-  <si>
-    <t>薬剤が投与される量</t>
-  </si>
-  <si>
-    <t>TQ1-2</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.id</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.extension</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.type</t>
-  </si>
-  <si>
-    <t>力価区分</t>
-  </si>
-  <si>
-    <t>投与速度・量の一般的パターンに全てのターミノロジーが適応しているわけではない。情報モデルはCodeableConceptではなく、直接Codingをを使用してテキストやコーディング、翻訳、そしてエレメントと事前条件、事後条件の関係について管理するためにその構造を提示する必要がある。</t>
-  </si>
-  <si>
-    <t>このtypeに値が指定されていなければ、"ordered"であることが想定される。</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationIngredientStrengthStrengthType_VS</t>
-  </si>
-  <si>
-    <t>RXO-21; RXE-23</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.dose[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
-</t>
-  </si>
-  <si>
-    <t>A fixed quantity (no comparator)</t>
-  </si>
-  <si>
-    <t>The comparator is not used on a SimpleQuantity</t>
-  </si>
-  <si>
-    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
-  </si>
-  <si>
-    <t>The amount of therapeutic or other substance given at one administration event.</t>
-  </si>
-  <si>
-    <t>closed</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -1304,259 +1281,31 @@
     <t>rateRatio</t>
   </si>
   <si>
+    <t xml:space="preserve">Ratio {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRateRatio}
+</t>
+  </si>
+  <si>
+    <t>単位時間内での薬剤の容量（体積）</t>
+  </si>
+  <si>
+    <t>【JP Core仕様】単位時間内での薬剤の容量（体積）、すなわち投与速度を記述する。単位はUCUMを使用する。</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+rat-1:Numerator and denominator SHALL both be present, or both are absent. If both are absent, there SHALL be some extension present {(numerator.empty() xor denominator.exists()) and (numerator.exists() or extension.exists())}</t>
+  </si>
+  <si>
+    <t>RTO</t>
+  </si>
+  <si>
+    <t>Dosage.maxDosePerPeriod</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ratio {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRatio}
 </t>
   </si>
   <si>
-    <t>単位時間内での薬剤の容量（体積）</t>
-  </si>
-  <si>
     <t>単位時間あたり薬剤の投与量</t>
-  </si>
-  <si>
-    <t>【JP Core仕様】単位時間内での薬剤の容量（体積）、すなわち投与速度を記述する。単位はUCUMを使用する。</t>
-  </si>
-  <si>
-    <t>患者の体内に導入される、あるいはされた薬剤の速度を指定する。一般的には、たとえば1時間あたり100mlあるいは100ml/hrのように注射の速度を示す。たとえば、500mlを2時間でというように、単位時間あたりの速さを表現することもできる。その他、200マイクログラム/minや200マイクログラム/1分, 1 リットル/8時間のような表現もできる。しばしば、投与速度を投与総量/ 投与総時間で表ような場合に投与時間が明示される（たとえば、500ml/2時間という場合は、投与時間が2時間であることを示している）。しかしながら、投与速度で投与時間が明示されない場合（たとえば、250ml/毎時)は、timing.repeat.durationが注射の総投与時間を示すためには必要となる。</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-rat-1:Numerator and denominator SHALL both be present, or both are absent. If both are absent, there SHALL be some extension present {(numerator.empty() xor denominator.exists()) and (numerator.exists() or extension.exists())}</t>
-  </si>
-  <si>
-    <t>RTO</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.rate[x].id</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.rate[x].extension</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.rate[x].numerator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationQuantity}
-</t>
-  </si>
-  <si>
-    <t>投与量（体積）</t>
-  </si>
-  <si>
-    <t>薬剤に関する数量と単位を定めている。ValueおよびCodeを必須としている。単位についてはMERIT9医薬品単位略号の利用を推進している。(**SHOULD**)</t>
-  </si>
-  <si>
-    <t>Ratio.numerator</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.rate[x].numerator.id</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.rate[x].numerator.extension</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.rate[x].numerator.value</t>
-  </si>
-  <si>
-    <t>暗示された精度については常に尊重すべきである。貨幣計算では制度に関する独自のルールがある（会計についての標準的な教科書を参照すること）。</t>
-  </si>
-  <si>
-    <t>Precision is handled implicitly in almost all cases of measurement.</t>
-  </si>
-  <si>
-    <t>Quantity.value</t>
-  </si>
-  <si>
-    <t>PQ.value, CO.value, MO.value, IVL.high or IVL.low depending on the value</t>
-  </si>
-  <si>
-    <t>SN.2  / CQ - N/A</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.rate[x].numerator.comparator</t>
-  </si>
-  <si>
-    <t>&lt; | &lt;= | &gt;= | &gt; - 値の解釈法</t>
-  </si>
-  <si>
-    <t>実際の値が計測して示された値よりも大きいのか小さいのかなど、値がどのように解釈され、表現されるのかを示している。たとえば、もし、comparatorエレメントが"&lt;"であれば、実際の値は示された値よりも小さい(&lt;)。</t>
-  </si>
-  <si>
-    <t>計測法に制限があって値が&lt;5ug/L や &gt;400mg/L として示されるような場合でも値を扱えるようなフレームワークが必要である。</t>
-  </si>
-  <si>
-    <t>If there is no comparator, then there is no modification of the value</t>
-  </si>
-  <si>
-    <t>How the Quantity should be understood and represented.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
-  </si>
-  <si>
-    <t>Quantity.comparator</t>
-  </si>
-  <si>
-    <t>IVL properties</t>
-  </si>
-  <si>
-    <t>SN.1  / CQ.1</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.rate[x].numerator.unit</t>
-  </si>
-  <si>
-    <t>投与量（体積）の単位</t>
-  </si>
-  <si>
-    <t>投与量（体積）の単位。UCUMを使用する。</t>
-  </si>
-  <si>
-    <t>コンテキストによってさまざまな単位の表現がある。固定された特定の表現が求められることがある。たとえば、mcgはmicrogramを表す。</t>
-  </si>
-  <si>
-    <t>Quantity.unit</t>
-  </si>
-  <si>
-    <t>PQ.unit</t>
-  </si>
-  <si>
-    <t>(see OBX.6 etc.) / CQ.2</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.rate[x].numerator.system</t>
-  </si>
-  <si>
-    <t>コード化された単位表現を規定するシステム</t>
-  </si>
-  <si>
-    <t>単位をコード化して表現するシステムについてのID。</t>
-  </si>
-  <si>
-    <t>以下参照。 http://en.wikipedia.org/wiki/Uniform_resource_identifier</t>
-  </si>
-  <si>
-    <t>システムによって定義される単位のコードを把握しておく必要がある。</t>
-  </si>
-  <si>
-    <t>http://unitsofmeasure.org</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationUnitMERIT9_VS</t>
-  </si>
-  <si>
-    <t>Quantity.system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qty-3
-</t>
-  </si>
-  <si>
-    <t>CO.codeSystem, PQ.translation.codeSystem</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.rate[x].numerator.code</t>
-  </si>
-  <si>
-    <t>単位のコード化された形式、【JP Core仕様】MERIT9医薬品単位略号マスタコードを推奨</t>
-  </si>
-  <si>
-    <t>単位のコード化された形式、【JP Core仕様】MERIT9医薬品単位略号マスタコードを推奨(**SHOULD**)</t>
-  </si>
-  <si>
-    <t>単位のコード化された形式、【JP Core仕様】MERIT9医薬品単位略号マスタコードを推奨(**SHOULD**)されるが、ローカルコード等を利用することも可能とする</t>
-  </si>
-  <si>
-    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
-  </si>
-  <si>
-    <t>Quantity.code</t>
-  </si>
-  <si>
-    <t>PQ.code, MO.currency, PQ.translation.code</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.rate[x].denominator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity
-</t>
-  </si>
-  <si>
-    <t>単位時間</t>
-  </si>
-  <si>
-    <t>Ratio.denominator</t>
-  </si>
-  <si>
-    <t>.denominator</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.rate[x].denominator.id</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.rate[x].denominator.extension</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.rate[x].denominator.value</t>
-  </si>
-  <si>
-    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.rate[x].denominator.comparator</t>
-  </si>
-  <si>
-    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
-  </si>
-  <si>
-    <t>How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
-  </si>
-  <si>
-    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.rate[x].denominator.unit</t>
-  </si>
-  <si>
-    <t>単位時間の単位</t>
-  </si>
-  <si>
-    <t>単位時間の単位。UCUMを使用する。</t>
-  </si>
-  <si>
-    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.rate[x].denominator.system</t>
-  </si>
-  <si>
-    <t>UCUMを識別するURL。</t>
-  </si>
-  <si>
-    <t>UCUMを識別するURL。固定値。</t>
-  </si>
-  <si>
-    <t>Need to know the system that defines the coded form of the unit.</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.rate[x].denominator.code</t>
-  </si>
-  <si>
-    <t>Coded form of the unit</t>
-  </si>
-  <si>
-    <t>A computer processable form of the unit in some unit representation system.</t>
-  </si>
-  <si>
-    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
-  </si>
-  <si>
-    <t>Dosage.maxDosePerPeriod</t>
   </si>
   <si>
     <t>単位時間あたり薬剤の投与量について薬剤単位をバインディングした型である。</t>
@@ -1887,7 +1636,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK91"/>
+  <dimension ref="A1:AK72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1896,7 +1645,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="51.13671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="34.8515625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="14.5390625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -4220,17 +3969,19 @@
         <v>74</v>
       </c>
       <c r="AA22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE22" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AB22" s="2"/>
-      <c r="AC22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
@@ -4245,7 +3996,7 @@
         <v>79</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>74</v>
@@ -4253,11 +4004,9 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
         <v>74</v>
       </c>
@@ -4275,13 +4024,13 @@
         <v>74</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="K23" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="L23" t="s" s="2">
         <v>186</v>
@@ -4289,7 +4038,9 @@
       <c r="M23" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="N23" s="2"/>
+      <c r="N23" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="O23" t="s" s="2">
         <v>74</v>
       </c>
@@ -4337,7 +4088,7 @@
         <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
@@ -4346,21 +4097,21 @@
         <v>82</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>188</v>
+        <v>74</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>189</v>
+        <v>79</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>190</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>191</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4383,20 +4134,18 @@
         <v>117</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="L24" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>197</v>
-      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>74</v>
       </c>
@@ -4444,7 +4193,7 @@
         <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
@@ -4459,7 +4208,7 @@
         <v>79</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>74</v>
@@ -4467,7 +4216,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4490,18 +4239,20 @@
         <v>117</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="N25" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L25" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>74</v>
       </c>
@@ -4549,7 +4300,7 @@
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
@@ -4564,7 +4315,7 @@
         <v>79</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>74</v>
@@ -4572,7 +4323,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4595,19 +4346,19 @@
         <v>117</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="K26" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>208</v>
-      </c>
       <c r="M26" t="s" s="2">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>74</v>
@@ -4656,7 +4407,7 @@
         <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>75</v>
@@ -4671,7 +4422,7 @@
         <v>79</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>74</v>
@@ -4679,7 +4430,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4702,20 +4453,18 @@
         <v>117</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>210</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>74</v>
       </c>
@@ -4739,13 +4488,13 @@
         <v>74</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>74</v>
+        <v>212</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>74</v>
+        <v>213</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>74</v>
+        <v>214</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>74</v>
@@ -4763,7 +4512,7 @@
         <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
@@ -4778,7 +4527,7 @@
         <v>79</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>74</v>
@@ -4809,22 +4558,24 @@
         <v>117</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="P28" s="2"/>
+      <c r="P28" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="Q28" t="s" s="2">
         <v>74</v>
       </c>
@@ -4844,31 +4595,31 @@
         <v>74</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>221</v>
+        <v>74</v>
       </c>
       <c r="X28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE28" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
@@ -4883,7 +4634,7 @@
         <v>79</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>74</v>
@@ -4891,7 +4642,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4914,24 +4665,22 @@
         <v>117</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="P29" t="s" s="2">
-        <v>230</v>
-      </c>
+      <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
         <v>74</v>
       </c>
@@ -4975,7 +4724,7 @@
         <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
@@ -4990,7 +4739,7 @@
         <v>79</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>74</v>
@@ -4998,7 +4747,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5021,16 +4770,16 @@
         <v>117</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5080,7 +4829,7 @@
         <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
@@ -5095,7 +4844,7 @@
         <v>79</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>74</v>
@@ -5103,7 +4852,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5126,16 +4875,16 @@
         <v>117</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5185,7 +4934,7 @@
         <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
@@ -5200,7 +4949,7 @@
         <v>79</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>74</v>
@@ -5208,7 +4957,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5231,16 +4980,16 @@
         <v>117</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>244</v>
+        <v>149</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5266,13 +5015,13 @@
         <v>74</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>74</v>
+        <v>212</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>74</v>
+        <v>213</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>74</v>
+        <v>214</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>74</v>
@@ -5290,7 +5039,7 @@
         <v>74</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
@@ -5305,7 +5054,7 @@
         <v>79</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>74</v>
@@ -5313,7 +5062,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5324,7 +5073,7 @@
         <v>75</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>74</v>
@@ -5336,16 +5085,16 @@
         <v>117</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>149</v>
+        <v>243</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5371,13 +5120,11 @@
         <v>74</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="X33" s="2"/>
       <c r="Y33" t="s" s="2">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>74</v>
@@ -5395,13 +5142,13 @@
         <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>74</v>
@@ -5410,7 +5157,7 @@
         <v>79</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>225</v>
+        <v>87</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>74</v>
@@ -5418,7 +5165,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5441,16 +5188,16 @@
         <v>117</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>218</v>
+        <v>247</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5476,11 +5223,13 @@
         <v>74</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="X34" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y34" t="s" s="2">
-        <v>253</v>
+        <v>74</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>74</v>
@@ -5498,7 +5247,7 @@
         <v>74</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
@@ -5521,7 +5270,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5544,18 +5293,20 @@
         <v>117</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="N35" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="K35" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>74</v>
       </c>
@@ -5579,13 +5330,13 @@
         <v>74</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>74</v>
+        <v>212</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>74</v>
+        <v>257</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>74</v>
+        <v>258</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>74</v>
@@ -5603,7 +5354,7 @@
         <v>74</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
@@ -5618,7 +5369,7 @@
         <v>79</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>87</v>
+        <v>260</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>74</v>
@@ -5637,7 +5388,7 @@
         <v>75</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>74</v>
@@ -5649,20 +5400,18 @@
         <v>117</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>218</v>
+        <v>262</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>74</v>
       </c>
@@ -5686,13 +5435,13 @@
         <v>74</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>221</v>
+        <v>74</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>266</v>
+        <v>74</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>267</v>
+        <v>74</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>74</v>
@@ -5710,13 +5459,13 @@
         <v>74</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>74</v>
@@ -5725,7 +5474,7 @@
         <v>79</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>74</v>
@@ -5733,7 +5482,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5756,16 +5505,16 @@
         <v>117</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>271</v>
+        <v>138</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>229</v>
+        <v>270</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5791,13 +5540,11 @@
         <v>74</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="X37" s="2"/>
       <c r="Y37" t="s" s="2">
-        <v>74</v>
+        <v>271</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>74</v>
@@ -5815,7 +5562,7 @@
         <v>74</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
@@ -5830,7 +5577,7 @@
         <v>79</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>74</v>
@@ -5838,7 +5585,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5861,16 +5608,16 @@
         <v>117</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>138</v>
+        <v>275</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5896,11 +5643,13 @@
         <v>74</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="X38" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y38" t="s" s="2">
-        <v>280</v>
+        <v>74</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>74</v>
@@ -5918,7 +5667,7 @@
         <v>74</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>75</v>
@@ -5933,15 +5682,15 @@
         <v>79</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>74</v>
+        <v>280</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5964,18 +5713,20 @@
         <v>117</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="L39" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>74</v>
       </c>
@@ -5999,13 +5750,11 @@
         <v>74</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="X39" s="2"/>
       <c r="Y39" t="s" s="2">
-        <v>74</v>
+        <v>286</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>74</v>
@@ -6023,7 +5772,7 @@
         <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
@@ -6038,15 +5787,15 @@
         <v>79</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AK39" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>289</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6072,16 +5821,16 @@
         <v>138</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>74</v>
@@ -6110,7 +5859,7 @@
       </c>
       <c r="X40" s="2"/>
       <c r="Y40" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>74</v>
@@ -6128,7 +5877,7 @@
         <v>74</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
@@ -6143,15 +5892,15 @@
         <v>79</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6177,16 +5926,16 @@
         <v>138</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="N41" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>74</v>
@@ -6211,9 +5960,11 @@
         <v>74</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="X41" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="Y41" t="s" s="2">
         <v>302</v>
       </c>
@@ -6233,7 +5984,7 @@
         <v>74</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>75</v>
@@ -6276,23 +6027,19 @@
         <v>74</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>306</v>
+        <v>84</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>308</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>74</v>
       </c>
@@ -6316,13 +6063,13 @@
         <v>74</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>309</v>
+        <v>74</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>310</v>
+        <v>74</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>311</v>
+        <v>74</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>74</v>
@@ -6340,7 +6087,7 @@
         <v>74</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>305</v>
+        <v>86</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>75</v>
@@ -6352,29 +6099,29 @@
         <v>74</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>312</v>
+        <v>87</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>313</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>74</v>
@@ -6386,15 +6133,17 @@
         <v>74</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="M43" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>93</v>
+      </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>74</v>
@@ -6431,31 +6180,31 @@
         <v>74</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AC43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>87</v>
@@ -6466,11 +6215,11 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6486,21 +6235,23 @@
         <v>74</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>90</v>
+        <v>308</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>91</v>
+        <v>309</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>92</v>
+        <v>310</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>74</v>
       </c>
@@ -6536,11 +6287,9 @@
         <v>74</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>95</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="AB44" s="2"/>
       <c r="AC44" t="s" s="2">
         <v>74</v>
       </c>
@@ -6548,7 +6297,7 @@
         <v>96</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>97</v>
+        <v>314</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>75</v>
@@ -6560,20 +6309,22 @@
         <v>74</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>87</v>
+        <v>315</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>74</v>
+        <v>316</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="B45" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>317</v>
+      </c>
       <c r="C45" t="s" s="2">
         <v>74</v>
       </c>
@@ -6582,7 +6333,7 @@
         <v>75</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>74</v>
@@ -6594,7 +6345,7 @@
         <v>117</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>318</v>
@@ -6631,29 +6382,29 @@
         <v>74</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="X45" s="2"/>
       <c r="Y45" t="s" s="2">
-        <v>74</v>
+        <v>322</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="AB45" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AC45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>75</v>
@@ -6668,19 +6419,17 @@
         <v>79</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>325</v>
+        <v>316</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
         <v>74</v>
       </c>
@@ -6698,23 +6447,19 @@
         <v>74</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>317</v>
+        <v>83</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>327</v>
+        <v>84</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>74</v>
       </c>
@@ -6738,11 +6483,13 @@
         <v>74</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="X46" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y46" t="s" s="2">
-        <v>331</v>
+        <v>74</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>74</v>
@@ -6760,41 +6507,41 @@
         <v>74</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>323</v>
+        <v>86</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>324</v>
+        <v>87</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>325</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>74</v>
@@ -6806,15 +6553,17 @@
         <v>74</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="M47" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>93</v>
+      </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>74</v>
@@ -6851,31 +6600,31 @@
         <v>74</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>87</v>
@@ -6886,18 +6635,18 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>74</v>
@@ -6906,27 +6655,29 @@
         <v>74</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>90</v>
+        <v>326</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>91</v>
+        <v>327</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>92</v>
+        <v>328</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>74</v>
+        <v>331</v>
       </c>
       <c r="R48" t="s" s="2">
         <v>74</v>
@@ -6956,42 +6707,42 @@
         <v>74</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AC48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>97</v>
+        <v>332</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>87</v>
+        <v>333</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>74</v>
+        <v>334</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6999,7 +6750,7 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>82</v>
@@ -7014,7 +6765,7 @@
         <v>117</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>335</v>
+        <v>83</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>336</v>
@@ -7025,15 +6776,13 @@
       <c r="M49" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="N49" t="s" s="2">
-        <v>339</v>
-      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>340</v>
+        <v>74</v>
       </c>
       <c r="R49" t="s" s="2">
         <v>74</v>
@@ -7075,7 +6824,7 @@
         <v>74</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>75</v>
@@ -7090,15 +6839,15 @@
         <v>79</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7121,18 +6870,18 @@
         <v>117</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>83</v>
+        <v>209</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="L50" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>74</v>
       </c>
@@ -7180,7 +6929,7 @@
         <v>74</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>75</v>
@@ -7195,15 +6944,15 @@
         <v>79</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7226,17 +6975,17 @@
         <v>117</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>218</v>
+        <v>83</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>74</v>
@@ -7285,7 +7034,7 @@
         <v>74</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>75</v>
@@ -7300,15 +7049,15 @@
         <v>79</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7331,17 +7080,19 @@
         <v>117</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>83</v>
+        <v>275</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="M52" s="2"/>
-      <c r="N52" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>74</v>
@@ -7390,7 +7141,7 @@
         <v>74</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>75</v>
@@ -7405,17 +7156,19 @@
         <v>79</v>
       </c>
       <c r="AJ52" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AK52" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>364</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="B53" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="C53" t="s" s="2">
         <v>74</v>
       </c>
@@ -7436,19 +7189,19 @@
         <v>117</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>284</v>
+        <v>308</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="L53" t="s" s="2">
-        <v>367</v>
-      </c>
       <c r="M53" t="s" s="2">
-        <v>368</v>
+        <v>320</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>369</v>
+        <v>321</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>74</v>
@@ -7473,13 +7226,11 @@
         <v>74</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="X53" s="2"/>
       <c r="Y53" t="s" s="2">
-        <v>74</v>
+        <v>367</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>74</v>
@@ -7497,13 +7248,13 @@
         <v>74</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>370</v>
+        <v>314</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>74</v>
@@ -7512,19 +7263,17 @@
         <v>79</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>371</v>
+        <v>315</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>372</v>
+        <v>316</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>373</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
         <v>74</v>
       </c>
@@ -7542,23 +7291,19 @@
         <v>74</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>317</v>
+        <v>83</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>374</v>
+        <v>84</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>74</v>
       </c>
@@ -7582,11 +7327,13 @@
         <v>74</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="X54" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y54" t="s" s="2">
-        <v>376</v>
+        <v>74</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>74</v>
@@ -7604,41 +7351,41 @@
         <v>74</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>323</v>
+        <v>86</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>324</v>
+        <v>87</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>325</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>74</v>
@@ -7650,15 +7397,17 @@
         <v>74</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="M55" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>93</v>
+      </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>74</v>
@@ -7695,31 +7444,31 @@
         <v>74</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AC55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>87</v>
@@ -7730,18 +7479,18 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>74</v>
@@ -7750,27 +7499,29 @@
         <v>74</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>90</v>
+        <v>326</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>91</v>
+        <v>327</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>92</v>
+        <v>328</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
-        <v>74</v>
+        <v>368</v>
       </c>
       <c r="R56" t="s" s="2">
         <v>74</v>
@@ -7800,42 +7551,42 @@
         <v>74</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AC56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>97</v>
+        <v>332</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>87</v>
+        <v>333</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>74</v>
+        <v>334</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7843,7 +7594,7 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>82</v>
@@ -7858,7 +7609,7 @@
         <v>117</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>335</v>
+        <v>83</v>
       </c>
       <c r="K57" t="s" s="2">
         <v>336</v>
@@ -7869,15 +7620,13 @@
       <c r="M57" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="N57" t="s" s="2">
-        <v>339</v>
-      </c>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" t="s" s="2">
-        <v>377</v>
+        <v>74</v>
       </c>
       <c r="R57" t="s" s="2">
         <v>74</v>
@@ -7919,7 +7668,7 @@
         <v>74</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>75</v>
@@ -7934,15 +7683,15 @@
         <v>79</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7965,18 +7714,18 @@
         <v>117</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>83</v>
+        <v>209</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="L58" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>74</v>
       </c>
@@ -8024,7 +7773,7 @@
         <v>74</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>75</v>
@@ -8039,15 +7788,15 @@
         <v>79</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8070,17 +7819,17 @@
         <v>117</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>218</v>
+        <v>83</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>74</v>
@@ -8129,7 +7878,7 @@
         <v>74</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>75</v>
@@ -8144,15 +7893,15 @@
         <v>79</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8175,17 +7924,19 @@
         <v>117</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>83</v>
+        <v>275</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>74</v>
@@ -8234,7 +7985,7 @@
         <v>74</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>75</v>
@@ -8249,15 +8000,15 @@
         <v>79</v>
       </c>
       <c r="AJ60" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AK60" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>364</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8280,19 +8031,19 @@
         <v>117</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>284</v>
+        <v>83</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>366</v>
+        <v>132</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>367</v>
+        <v>133</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>368</v>
+        <v>134</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>369</v>
+        <v>135</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>74</v>
@@ -8364,7 +8115,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8375,7 +8126,7 @@
         <v>75</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>74</v>
@@ -8387,20 +8138,16 @@
         <v>117</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>83</v>
+        <v>168</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>132</v>
+        <v>374</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>74</v>
       </c>
@@ -8448,13 +8195,13 @@
         <v>74</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>74</v>
@@ -8463,15 +8210,15 @@
         <v>79</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>380</v>
+        <v>74</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8482,7 +8229,7 @@
         <v>75</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>74</v>
@@ -8491,16 +8238,16 @@
         <v>74</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>168</v>
+        <v>83</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>383</v>
+        <v>84</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>384</v>
+        <v>85</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8551,41 +8298,41 @@
         <v>74</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>382</v>
+        <v>86</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>385</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>74</v>
@@ -8597,15 +8344,17 @@
         <v>74</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="M64" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>93</v>
+      </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>74</v>
@@ -8642,31 +8391,31 @@
         <v>74</v>
       </c>
       <c r="AA64" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AC64" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>87</v>
@@ -8677,18 +8426,18 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>74</v>
@@ -8697,21 +8446,23 @@
         <v>74</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>90</v>
+        <v>138</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>91</v>
+        <v>380</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>92</v>
+        <v>380</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>382</v>
+      </c>
       <c r="O65" t="s" s="2">
         <v>74</v>
       </c>
@@ -8735,54 +8486,52 @@
         <v>74</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="X65" s="2"/>
       <c r="Y65" t="s" s="2">
-        <v>74</v>
+        <v>383</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AA65" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AC65" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD65" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>97</v>
+        <v>379</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>74</v>
+        <v>384</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8802,22 +8551,22 @@
         <v>74</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>138</v>
+        <v>386</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="L66" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>74</v>
@@ -8842,29 +8591,29 @@
         <v>74</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="X66" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AB66" s="2"/>
+      <c r="AC66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD66" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="Z66" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="AE66" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>75</v>
@@ -8873,23 +8622,25 @@
         <v>82</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>74</v>
+        <v>393</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>79</v>
+        <v>394</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>74</v>
+        <v>395</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="B67" s="2"/>
+        <v>385</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>397</v>
+      </c>
       <c r="C67" t="s" s="2">
         <v>74</v>
       </c>
@@ -8910,19 +8661,19 @@
         <v>74</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>74</v>
@@ -8959,44 +8710,44 @@
         <v>74</v>
       </c>
       <c r="AA67" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AB67" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AC67" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD67" t="s" s="2">
-        <v>400</v>
+        <v>74</v>
       </c>
       <c r="AE67" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AI67" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="AF67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>401</v>
-      </c>
       <c r="AJ67" t="s" s="2">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>403</v>
+        <v>396</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>404</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
         <v>74</v>
       </c>
@@ -9014,22 +8765,22 @@
         <v>74</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>406</v>
+        <v>374</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>406</v>
+        <v>375</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>74</v>
@@ -9066,19 +8817,17 @@
         <v>74</v>
       </c>
       <c r="AA68" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="AB68" s="2"/>
       <c r="AC68" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD68" t="s" s="2">
-        <v>74</v>
+        <v>392</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>75</v>
@@ -9087,23 +8836,25 @@
         <v>82</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>188</v>
+        <v>74</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>401</v>
+        <v>79</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="B69" s="2"/>
+        <v>401</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>407</v>
+      </c>
       <c r="C69" t="s" s="2">
         <v>74</v>
       </c>
@@ -9121,22 +8872,22 @@
         <v>74</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="J69" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="K69" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="K69" t="s" s="2">
-        <v>383</v>
-      </c>
       <c r="L69" t="s" s="2">
-        <v>384</v>
+        <v>409</v>
       </c>
       <c r="M69" t="s" s="2">
         <v>410</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>74</v>
@@ -9173,17 +8924,19 @@
         <v>74</v>
       </c>
       <c r="AA69" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AB69" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AC69" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD69" t="s" s="2">
-        <v>400</v>
+        <v>74</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>75</v>
@@ -9192,25 +8945,23 @@
         <v>82</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>74</v>
+        <v>393</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>79</v>
+        <v>411</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>412</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>413</v>
+        <v>122</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>414</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
         <v>74</v>
       </c>
@@ -9231,19 +8982,19 @@
         <v>74</v>
       </c>
       <c r="J70" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="K70" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="K70" t="s" s="2">
+      <c r="L70" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>74</v>
@@ -9292,7 +9043,7 @@
         <v>74</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>75</v>
@@ -9301,13 +9052,13 @@
         <v>82</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>188</v>
+        <v>393</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>122</v>
@@ -9315,7 +9066,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9338,16 +9089,20 @@
         <v>74</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>83</v>
+        <v>398</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>84</v>
+        <v>419</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
+        <v>419</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>421</v>
+      </c>
       <c r="O71" t="s" s="2">
         <v>74</v>
       </c>
@@ -9395,7 +9150,7 @@
         <v>74</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>86</v>
+        <v>418</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>75</v>
@@ -9404,32 +9159,32 @@
         <v>82</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>74</v>
+        <v>393</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>74</v>
+        <v>394</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>87</v>
+        <v>395</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>74</v>
+        <v>396</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>74</v>
@@ -9441,18 +9196,20 @@
         <v>74</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>90</v>
+        <v>398</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>91</v>
+        <v>419</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>92</v>
+        <v>419</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N72" s="2"/>
+        <v>420</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="O72" t="s" s="2">
         <v>74</v>
       </c>
@@ -9488,2046 +9245,37 @@
         <v>74</v>
       </c>
       <c r="AA72" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AC72" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD72" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>97</v>
+        <v>422</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>74</v>
+        <v>393</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>98</v>
+        <v>394</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>87</v>
+        <v>395</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P73" s="2"/>
-      <c r="Q73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D74" s="2"/>
-      <c r="E74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
-      <c r="O74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P74" s="2"/>
-      <c r="Q74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="E75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N75" s="2"/>
-      <c r="O75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P75" s="2"/>
-      <c r="Q75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="F76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P76" s="2"/>
-      <c r="Q76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P77" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="Q77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P78" s="2"/>
-      <c r="Q78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="B79" s="2"/>
-      <c r="C79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D79" s="2"/>
-      <c r="E79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P79" s="2"/>
-      <c r="Q79" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="R79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="X79" s="2"/>
-      <c r="Y79" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="B80" s="2"/>
-      <c r="C80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D80" s="2"/>
-      <c r="E80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="F80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P80" s="2"/>
-      <c r="Q80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="X80" s="2"/>
-      <c r="Y80" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="B81" s="2"/>
-      <c r="C81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D81" s="2"/>
-      <c r="E81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F81" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
-      <c r="O81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P81" s="2"/>
-      <c r="Q81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="B82" s="2"/>
-      <c r="C82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D82" s="2"/>
-      <c r="E82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F82" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="M82" s="2"/>
-      <c r="N82" s="2"/>
-      <c r="O82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P82" s="2"/>
-      <c r="Q82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="B83" s="2"/>
-      <c r="C83" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="D83" s="2"/>
-      <c r="E83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N83" s="2"/>
-      <c r="O83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P83" s="2"/>
-      <c r="Q83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="B84" s="2"/>
-      <c r="C84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D84" s="2"/>
-      <c r="E84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P84" s="2"/>
-      <c r="Q84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="B85" s="2"/>
-      <c r="C85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D85" s="2"/>
-      <c r="E85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="M85" s="2"/>
-      <c r="N85" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P85" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="Q85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="B86" s="2"/>
-      <c r="C86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D86" s="2"/>
-      <c r="E86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="M86" s="2"/>
-      <c r="N86" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P86" s="2"/>
-      <c r="Q86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="B87" s="2"/>
-      <c r="C87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D87" s="2"/>
-      <c r="E87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="M87" s="2"/>
-      <c r="N87" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P87" s="2"/>
-      <c r="Q87" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="R87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="B88" s="2"/>
-      <c r="C88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D88" s="2"/>
-      <c r="E88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P88" s="2"/>
-      <c r="Q88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="B89" s="2"/>
-      <c r="C89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D89" s="2"/>
-      <c r="E89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P89" s="2"/>
-      <c r="Q89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="B90" s="2"/>
-      <c r="C90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D90" s="2"/>
-      <c r="E90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P90" s="2"/>
-      <c r="Q90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="B91" s="2"/>
-      <c r="C91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D91" s="2"/>
-      <c r="E91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F91" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J91" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="K91" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P91" s="2"/>
-      <c r="Q91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>403</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage-injection.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2431" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2431" uniqueCount="421">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T12:56:24+00:00</t>
+    <t>2022-09-15T21:18:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1281,7 +1281,7 @@
     <t>rateRatio</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRateRatio}
+    <t xml:space="preserve">Ratio {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRatio_DosePerPeriod}
 </t>
   </si>
   <si>
@@ -1299,16 +1299,6 @@
   </si>
   <si>
     <t>Dosage.maxDosePerPeriod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ratio {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRatio}
-</t>
-  </si>
-  <si>
-    <t>単位時間あたり薬剤の投与量</t>
-  </si>
-  <si>
-    <t>単位時間あたり薬剤の投与量について薬剤単位をバインディングした型である。</t>
   </si>
   <si>
     <t>The maximum total quantity of a therapeutic substance that may be administered to a subject over the period of time.  For example, 1000mg in 24 hours.</t>
@@ -8982,19 +8972,19 @@
         <v>74</v>
       </c>
       <c r="J70" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="N70" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>74</v>
@@ -9066,7 +9056,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9092,16 +9082,16 @@
         <v>398</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>74</v>
@@ -9150,7 +9140,7 @@
         <v>74</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>75</v>
@@ -9173,7 +9163,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9199,16 +9189,16 @@
         <v>398</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="M72" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="N72" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>74</v>
@@ -9257,7 +9247,7 @@
         <v>74</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>75</v>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage-injection.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2431" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2501" uniqueCount="433">
   <si>
     <t>Property</t>
   </si>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>JP Core MedicationDosage Prescription DataType</t>
+    <t>JP Core MedicationDosage Injection DataType</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-15T21:18:29+00:00</t>
+    <t>2022-09-15T22:47:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>注射用法に関するDataType</t>
+    <t>このプロファイルは注射用法の制約と拡張のうち共通部分を定めている。</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -1206,17 +1206,17 @@
     <t>Dosage.doseAndRate.dose[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
-</t>
-  </si>
-  <si>
-    <t>A fixed quantity (no comparator)</t>
-  </si>
-  <si>
-    <t>The comparator is not used on a SimpleQuantity</t>
-  </si>
-  <si>
-    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
+    <t>Quantity
+Range</t>
+  </si>
+  <si>
+    <t>Amount of medication per dose</t>
+  </si>
+  <si>
+    <t>Amount of medication per dose.</t>
+  </si>
+  <si>
+    <t>Note that this specifies the quantity of the specified medication, not the quantity for each active ingredient(s). Each ingredient amount can be communicated in the Medication resource. For example, if one wants to communicate that a tablet was 375 mg, where the dose was one tablet, you can use the Medication resource to document that the tablet was comprised of 375 mg of drug XYZ. Alternatively if the dose was 375 mg, then you may only need to use the Medication resource to indicate this was a tablet. If the example were an IV such as dopamine and you wanted to communicate that 400mg of dopamine was mixed in 500 ml of some IV solution, then this would all be communicated in the Medication resource. If the administration is not intended to be instantaneous (rate is present or timing has a duration), this can be specified to convey the total amount to be administered over the period of time as indicated by the schedule e.g. 500 ml in dose, with timing used to convey that this should be done over 4 hours.</t>
   </si>
   <si>
     <t>The amount of therapeutic or other substance given at one administration event.</t>
@@ -1229,6 +1229,23 @@
     <t>closed</t>
   </si>
   <si>
+    <t>RXO-2, RXE-3</t>
+  </si>
+  <si>
+    <t>doseQuantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationSimpleQuantity}
+</t>
+  </si>
+  <si>
+    <t>1回投与量（体積）</t>
+  </si>
+  <si>
+    <t>この量は指定された薬剤の量を指定するものであって、各有効成分の量を指定するものではない。各成分の量はMedication resourceで伝えることができる。たとえば、有効成分が375mgである錠剤を1錠投与することを伝えたい場合、Medication resourceを利用して、XYZ成分が375mg含有しているという錠剤であることを文書化することができる。あるいは1回投与量が375mgであることを伝えるのであれば、Medication resourceをつかって単にそれが錠剤であることを示せばよい。もし、ドーパミンの静注を例に挙げて、400mgのドーパミンを500mlの注射溶液に混ぜて使うことを伝えたいのであれば、それをすべてMedication resourceで伝えることができる。もし、投与について即時に伝達することを意図していない（たとえば投与速度が示されていたり、投与時期に範囲があるような場合）のであれば、たとえば1回500mlを4時間以上かけて投与する予定を伝える場合にもMedication resourceで伝えることができる。  
+【JP Core仕様】1回の投与量（体積）を指定する。単位はUCUMを使用する。</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
@@ -1243,18 +1260,27 @@
     <t>SN (see also Range) or CQ</t>
   </si>
   <si>
-    <t>doseQuantity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationSimpleQuantity}
+    <t>doseRange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Range {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRange}
 </t>
   </si>
   <si>
-    <t>1回投与量（体積）</t>
-  </si>
-  <si>
-    <t>この量は指定された薬剤の量を指定するものであって、各有効成分の量を指定するものではない。各成分の量はMedication resourceで伝えることができる。たとえば、有効成分が375mgである錠剤を1錠投与することを伝えたい場合、Medication resourceを利用して、XYZ成分が375mg含有しているという錠剤であることを文書化することができる。あるいは1回投与量が375mgであることを伝えるのであれば、Medication resourceをつかって単にそれが錠剤であることを示せばよい。もし、ドーパミンの静注を例に挙げて、400mgのドーパミンを500mlの注射溶液に混ぜて使うことを伝えたいのであれば、それをすべてMedication resourceで伝えることができる。もし、投与について即時に伝達することを意図していない（たとえば投与速度が示されていたり、投与時期に範囲があるような場合）のであれば、たとえば1回500mlを4時間以上かけて投与する予定を伝える場合にもMedication resourceで伝えることができる。  
-【JP Core仕様】1回の投与量（体積）を指定する。単位はUCUMを使用する。</t>
+    <t>薬剤の単位指定された上限下限量</t>
+  </si>
+  <si>
+    <t>薬剤の上限量、下限量の範囲を持っている。単位指定された数量を割り当てている。</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+rng-2:If present, low SHALL have a lower value than high {low.empty() or high.empty() or (low &lt;= high)}</t>
+  </si>
+  <si>
+    <t>IVL&lt;QTY[not(type="TS")]&gt; [lowClosed="true" and highClosed="true"]or URG&lt;QTY[not(type="TS")]&gt;</t>
+  </si>
+  <si>
+    <t>NR and also possibly SN (but see also quantity)</t>
   </si>
   <si>
     <t>Dosage.doseAndRate.rate[x]</t>
@@ -1281,24 +1307,38 @@
     <t>rateRatio</t>
   </si>
   <si>
+    <t xml:space="preserve">Ratio {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRatio_DosePerDay}
+</t>
+  </si>
+  <si>
+    <t>１日当たりでの薬剤の容量（体積）</t>
+  </si>
+  <si>
+    <t>【JP Core仕様】単位時間内での薬剤の容量（体積）、すなわち投与速度を記述する。単位はUCUMを使用する。</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+rat-1:Numerator and denominator SHALL both be present, or both are absent. If both are absent, there SHALL be some extension present {(numerator.empty() xor denominator.exists()) and (numerator.exists() or extension.exists())}</t>
+  </si>
+  <si>
+    <t>RTO</t>
+  </si>
+  <si>
+    <t>rateRange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Range {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRange_UnitOfTime}
+</t>
+  </si>
+  <si>
+    <t>Dosage.maxDosePerPeriod</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ratio {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRatio_DosePerPeriod}
 </t>
   </si>
   <si>
     <t>単位時間内での薬剤の容量（体積）</t>
-  </si>
-  <si>
-    <t>【JP Core仕様】単位時間内での薬剤の容量（体積）、すなわち投与速度を記述する。単位はUCUMを使用する。</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-rat-1:Numerator and denominator SHALL both be present, or both are absent. If both are absent, there SHALL be some extension present {(numerator.empty() xor denominator.exists()) and (numerator.exists() or extension.exists())}</t>
-  </si>
-  <si>
-    <t>RTO</t>
-  </si>
-  <si>
-    <t>Dosage.maxDosePerPeriod</t>
   </si>
   <si>
     <t>The maximum total quantity of a therapeutic substance that may be administered to a subject over the period of time.  For example, 1000mg in 24 hours.</t>
@@ -1626,7 +1666,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK72"/>
+  <dimension ref="A1:AK74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -8541,7 +8581,7 @@
         <v>74</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="J66" t="s" s="2">
         <v>386</v>
@@ -8612,16 +8652,16 @@
         <v>82</v>
       </c>
       <c r="AH66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AK66" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>396</v>
       </c>
     </row>
     <row r="67">
@@ -8629,7 +8669,7 @@
         <v>385</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C67" t="s" s="2">
         <v>74</v>
@@ -8651,16 +8691,16 @@
         <v>74</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="N67" t="s" s="2">
         <v>390</v>
@@ -8721,23 +8761,25 @@
         <v>82</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>396</v>
+        <v>401</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="B68" s="2"/>
+        <v>385</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>402</v>
+      </c>
       <c r="C68" t="s" s="2">
         <v>74</v>
       </c>
@@ -8755,22 +8797,22 @@
         <v>74</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>374</v>
+        <v>404</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>375</v>
+        <v>404</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>74</v>
@@ -8807,17 +8849,19 @@
         <v>74</v>
       </c>
       <c r="AA68" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="AB68" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AC68" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD68" t="s" s="2">
-        <v>392</v>
+        <v>74</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>75</v>
@@ -8826,25 +8870,23 @@
         <v>82</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>74</v>
+        <v>398</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>79</v>
+        <v>406</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>407</v>
-      </c>
+        <v>409</v>
+      </c>
+      <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
         <v>74</v>
       </c>
@@ -8862,22 +8904,22 @@
         <v>74</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>409</v>
+        <v>374</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>409</v>
+        <v>375</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>74</v>
@@ -8914,19 +8956,17 @@
         <v>74</v>
       </c>
       <c r="AA69" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="AB69" s="2"/>
       <c r="AC69" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD69" t="s" s="2">
-        <v>74</v>
+        <v>392</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>75</v>
@@ -8935,23 +8975,25 @@
         <v>82</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>393</v>
+        <v>74</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>411</v>
+        <v>79</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>122</v>
+        <v>414</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="B70" s="2"/>
+        <v>409</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>415</v>
+      </c>
       <c r="C70" t="s" s="2">
         <v>74</v>
       </c>
@@ -8972,19 +9014,19 @@
         <v>74</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>74</v>
@@ -9033,7 +9075,7 @@
         <v>74</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>75</v>
@@ -9042,13 +9084,13 @@
         <v>82</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>122</v>
@@ -9056,9 +9098,11 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="B71" s="2"/>
+        <v>409</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>421</v>
+      </c>
       <c r="C71" t="s" s="2">
         <v>74</v>
       </c>
@@ -9079,19 +9123,19 @@
         <v>74</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>398</v>
+        <v>422</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>74</v>
@@ -9140,7 +9184,7 @@
         <v>74</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>75</v>
@@ -9149,21 +9193,21 @@
         <v>82</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>396</v>
+        <v>408</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9186,19 +9230,19 @@
         <v>74</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>398</v>
+        <v>424</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>74</v>
@@ -9247,25 +9291,239 @@
         <v>74</v>
       </c>
       <c r="AE72" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AI72" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="AF72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>394</v>
-      </c>
       <c r="AJ72" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J73" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="AK72" t="s" s="2">
-        <v>396</v>
+      <c r="K73" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>401</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage-injection.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2501" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2501" uniqueCount="435">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-15T22:47:08+00:00</t>
+    <t>2022-09-16T00:49:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1311,10 +1311,10 @@
 </t>
   </si>
   <si>
-    <t>１日当たりでの薬剤の容量（体積）</t>
-  </si>
-  <si>
-    <t>【JP Core仕様】単位時間内での薬剤の容量（体積）、すなわち投与速度を記述する。単位はUCUMを使用する。</t>
+    <t>１日当たりでの薬剤の投入量</t>
+  </si>
+  <si>
+    <t>The Ratio datatype should only be used to express a relationship of two numbers if the relationship cannot be suitably expressed using a Quantity and a common unit.  Where the denominator value is known to be fixed to "1", Quantity should be used instead of Ratio.</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -1329,6 +1329,12 @@
   <si>
     <t xml:space="preserve">Range {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRange_UnitOfTime}
 </t>
+  </si>
+  <si>
+    <t>時間範囲指定された上限下限量</t>
+  </si>
+  <si>
+    <t>時間の上限量、下限量の範囲を持っている。単位指定された数量を割り当てている。</t>
   </si>
   <si>
     <t>Dosage.maxDosePerPeriod</t>
@@ -9126,13 +9132,13 @@
         <v>422</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>404</v>
+        <v>423</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>404</v>
+        <v>423</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>405</v>
+        <v>424</v>
       </c>
       <c r="N71" t="s" s="2">
         <v>412</v>
@@ -9207,7 +9213,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9230,19 +9236,19 @@
         <v>74</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="M72" t="s" s="2">
         <v>418</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>74</v>
@@ -9291,7 +9297,7 @@
         <v>74</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>75</v>
@@ -9314,7 +9320,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9340,16 +9346,16 @@
         <v>395</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>74</v>
@@ -9398,7 +9404,7 @@
         <v>74</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>75</v>
@@ -9421,7 +9427,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9447,16 +9453,16 @@
         <v>395</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>74</v>
@@ -9505,7 +9511,7 @@
         <v>74</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>75</v>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage-injection.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage-injection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T00:49:51+00:00</t>
+    <t>2022-09-16T00:58:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage-injection.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage-injection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T00:58:14+00:00</t>
+    <t>2022-09-16T01:34:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage-injection.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage-injection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T01:34:43+00:00</t>
+    <t>2022-09-16T02:51:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage-injection.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage-injection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T02:51:37+00:00</t>
+    <t>2022-09-16T03:47:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage-injection.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage-injection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T03:47:56+00:00</t>
+    <t>2022-09-16T04:34:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage-injection.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage-injection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T04:34:30+00:00</t>
+    <t>2022-09-16T06:11:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage-injection.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage-injection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T06:11:11+00:00</t>
+    <t>2022-09-16T07:34:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage-injection.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationdosage-injection.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T07:34:37+00:00</t>
+    <t>2022-09-16T07:48:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1344,7 +1344,7 @@
 </t>
   </si>
   <si>
-    <t>単位時間内での薬剤の容量（体積）</t>
+    <t>単位時間内での薬剤の容量</t>
   </si>
   <si>
     <t>The maximum total quantity of a therapeutic substance that may be administered to a subject over the period of time.  For example, 1000mg in 24 hours.</t>
